--- a/pathologiesRespiFrance.xlsx
+++ b/pathologiesRespiFrance.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christophe Godlewski\MEGAsync\wirus\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christophe Godlewski\MEGAsync\GitHub\covid19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E96EAC4-0AE8-4D8A-8EAF-10A2079C3E95}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D6169FC-C61B-4D75-AECD-6C44A934830B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C7A5E7A9-40F6-48C7-AF9F-3089D8153C5F}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>2020-S43</t>
   </si>
@@ -227,6 +227,9 @@
   </si>
   <si>
     <t>2021-S05</t>
+  </si>
+  <si>
+    <t>2021-S06</t>
   </si>
 </sst>
 </file>
@@ -612,11 +615,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74130894-499C-4806-A027-6CF74BEEC805}">
-  <dimension ref="A1:H57"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -661,1184 +664,1198 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B2" s="2">
-        <v>2570</v>
+        <v>2277</v>
       </c>
       <c r="C2" s="2">
-        <v>3668</v>
+        <v>3348</v>
       </c>
       <c r="D2" s="2">
-        <v>2101</v>
+        <v>1761</v>
       </c>
       <c r="E2" s="2">
-        <v>5799</v>
+        <v>5822</v>
       </c>
       <c r="F2" s="2">
-        <v>681</v>
+        <v>860</v>
       </c>
       <c r="G2" s="2">
-        <v>474</v>
+        <v>451</v>
       </c>
       <c r="H2" s="2">
-        <v>6535</v>
+        <v>6613</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B3" s="2">
-        <v>2394</v>
+        <v>2570</v>
       </c>
       <c r="C3" s="2">
-        <v>3437</v>
+        <v>3668</v>
       </c>
       <c r="D3" s="2">
-        <v>1954</v>
+        <v>2101</v>
       </c>
       <c r="E3" s="2">
-        <v>5778</v>
+        <v>5799</v>
       </c>
       <c r="F3" s="2">
-        <v>1058</v>
+        <v>681</v>
       </c>
       <c r="G3" s="2">
-        <v>444</v>
+        <v>474</v>
       </c>
       <c r="H3" s="2">
-        <v>6628</v>
+        <v>6535</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B4" s="2">
-        <v>2609</v>
+        <v>2394</v>
       </c>
       <c r="C4" s="2">
-        <v>3265</v>
+        <v>3437</v>
       </c>
       <c r="D4" s="2">
-        <v>2106</v>
+        <v>1954</v>
       </c>
       <c r="E4" s="2">
-        <v>5743</v>
+        <v>5778</v>
       </c>
       <c r="F4" s="2">
-        <v>1172</v>
+        <v>1058</v>
       </c>
       <c r="G4" s="2">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="H4" s="2">
-        <v>6776</v>
+        <v>6628</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B5" s="2">
-        <v>2649</v>
+        <v>2609</v>
       </c>
       <c r="C5" s="2">
-        <v>3611</v>
+        <v>3265</v>
       </c>
       <c r="D5" s="2">
-        <v>2484</v>
+        <v>2106</v>
       </c>
       <c r="E5" s="2">
-        <v>5857</v>
+        <v>5743</v>
       </c>
       <c r="F5" s="2">
-        <v>1354</v>
+        <v>1172</v>
       </c>
       <c r="G5" s="2">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="H5" s="2">
-        <v>7031</v>
+        <v>6776</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" s="2">
-        <v>2249</v>
+        <v>2649</v>
       </c>
       <c r="C6" s="2">
-        <v>3660</v>
+        <v>3611</v>
       </c>
       <c r="D6" s="2">
-        <v>2506</v>
+        <v>2484</v>
       </c>
       <c r="E6" s="2">
-        <v>5796</v>
+        <v>5857</v>
       </c>
       <c r="F6" s="2">
-        <v>1055</v>
+        <v>1354</v>
       </c>
       <c r="G6" s="2">
-        <v>530</v>
+        <v>470</v>
       </c>
       <c r="H6" s="2">
-        <v>7053</v>
+        <v>7031</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B7" s="2">
-        <v>2224</v>
+        <v>2249</v>
       </c>
       <c r="C7" s="2">
-        <v>3236</v>
+        <v>3660</v>
       </c>
       <c r="D7" s="2">
-        <v>2085</v>
+        <v>2506</v>
       </c>
       <c r="E7" s="2">
-        <v>5543</v>
+        <v>5796</v>
       </c>
       <c r="F7" s="2">
-        <v>1234</v>
+        <v>1055</v>
       </c>
       <c r="G7" s="2">
-        <v>445</v>
+        <v>530</v>
       </c>
       <c r="H7" s="2">
-        <v>6928</v>
+        <v>7053</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="B8" s="2">
-        <v>2316</v>
+        <v>2224</v>
       </c>
       <c r="C8" s="2">
-        <v>3213</v>
+        <v>3236</v>
       </c>
       <c r="D8" s="2">
-        <v>2170</v>
+        <v>2085</v>
       </c>
       <c r="E8" s="2">
-        <v>5312</v>
+        <v>5543</v>
       </c>
       <c r="F8" s="2">
-        <v>800</v>
+        <v>1234</v>
       </c>
       <c r="G8" s="2">
-        <v>421</v>
+        <v>445</v>
       </c>
       <c r="H8" s="2">
-        <v>6957</v>
+        <v>6928</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9" s="2">
-        <v>2615</v>
+        <v>2316</v>
       </c>
       <c r="C9" s="2">
-        <v>3852</v>
+        <v>3213</v>
       </c>
       <c r="D9" s="2">
-        <v>2035</v>
+        <v>2170</v>
       </c>
       <c r="E9" s="2">
-        <v>5315</v>
+        <v>5312</v>
       </c>
       <c r="F9" s="2">
-        <v>963</v>
+        <v>800</v>
       </c>
       <c r="G9" s="2">
-        <v>470</v>
+        <v>421</v>
       </c>
       <c r="H9" s="2">
-        <v>6774</v>
+        <v>6957</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B10" s="2">
-        <v>2864</v>
+        <v>2615</v>
       </c>
       <c r="C10" s="2">
-        <v>3531</v>
+        <v>3852</v>
       </c>
       <c r="D10" s="2">
-        <v>2661</v>
+        <v>2035</v>
       </c>
       <c r="E10" s="2">
-        <v>5505</v>
+        <v>5315</v>
       </c>
       <c r="F10" s="2">
-        <v>1176</v>
+        <v>963</v>
       </c>
       <c r="G10" s="2">
-        <v>494</v>
+        <v>470</v>
       </c>
       <c r="H10" s="2">
-        <v>6953</v>
+        <v>6774</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B11" s="2">
-        <v>2731</v>
+        <v>2864</v>
       </c>
       <c r="C11" s="2">
-        <v>3634</v>
+        <v>3531</v>
       </c>
       <c r="D11" s="2">
-        <v>2757</v>
+        <v>2661</v>
       </c>
       <c r="E11" s="2">
-        <v>5530</v>
+        <v>5505</v>
       </c>
       <c r="F11" s="2">
-        <v>1081</v>
+        <v>1176</v>
       </c>
       <c r="G11" s="2">
-        <v>569</v>
+        <v>494</v>
       </c>
       <c r="H11" s="2">
-        <v>7146</v>
+        <v>6953</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12" s="2">
-        <v>2607</v>
+        <v>2731</v>
       </c>
       <c r="C12" s="2">
-        <v>3547</v>
+        <v>3634</v>
       </c>
       <c r="D12" s="2">
-        <v>2478</v>
+        <v>2757</v>
       </c>
       <c r="E12" s="2">
-        <v>5645</v>
+        <v>5530</v>
       </c>
       <c r="F12" s="2">
-        <v>1467</v>
+        <v>1081</v>
       </c>
       <c r="G12" s="2">
-        <v>527</v>
+        <v>569</v>
       </c>
       <c r="H12" s="2">
-        <v>7281</v>
+        <v>7146</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" s="2">
-        <v>2736</v>
+        <v>2607</v>
       </c>
       <c r="C13" s="2">
-        <v>3700</v>
+        <v>3547</v>
       </c>
       <c r="D13" s="2">
-        <v>2746</v>
+        <v>2478</v>
       </c>
       <c r="E13" s="2">
-        <v>5669</v>
+        <v>5645</v>
       </c>
       <c r="F13" s="2">
-        <v>1076</v>
+        <v>1467</v>
       </c>
       <c r="G13" s="2">
-        <v>554</v>
+        <v>527</v>
       </c>
       <c r="H13" s="2">
-        <v>7393</v>
+        <v>7281</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" s="2">
-        <v>2786</v>
+        <v>2736</v>
       </c>
       <c r="C14" s="2">
-        <v>3593</v>
+        <v>3700</v>
       </c>
       <c r="D14" s="2">
-        <v>2260</v>
+        <v>2746</v>
       </c>
       <c r="E14" s="2">
-        <v>5635</v>
+        <v>5669</v>
       </c>
       <c r="F14" s="2">
-        <v>1726</v>
+        <v>1076</v>
       </c>
       <c r="G14" s="2">
-        <v>500</v>
+        <v>554</v>
       </c>
       <c r="H14" s="2">
-        <v>7351</v>
+        <v>7393</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2">
-        <v>2685</v>
+        <v>2786</v>
       </c>
       <c r="C15" s="2">
-        <v>3708</v>
+        <v>3593</v>
       </c>
       <c r="D15" s="2">
-        <v>2585</v>
+        <v>2260</v>
       </c>
       <c r="E15" s="2">
-        <v>5383</v>
+        <v>5635</v>
       </c>
       <c r="F15" s="2">
-        <v>873</v>
+        <v>1726</v>
       </c>
       <c r="G15" s="2">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="H15" s="2">
-        <v>7253</v>
+        <v>7351</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2685</v>
+      </c>
+      <c r="C16" s="2">
+        <v>3708</v>
+      </c>
+      <c r="D16" s="2">
+        <v>2585</v>
+      </c>
+      <c r="E16" s="2">
+        <v>5383</v>
+      </c>
+      <c r="F16" s="2">
+        <v>873</v>
+      </c>
+      <c r="G16" s="2">
+        <v>506</v>
+      </c>
+      <c r="H16" s="2">
+        <v>7253</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B17" s="2">
         <v>2608</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C17" s="2">
         <v>3688</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D17" s="2">
         <v>2264</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E17" s="2">
         <v>4891</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F17" s="2">
         <v>1056</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G17" s="2">
         <v>534</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H17" s="2">
         <v>6995</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="4">
-        <v>2967</v>
-      </c>
-      <c r="C17" s="4">
-        <v>3491</v>
-      </c>
-      <c r="D17" s="4">
-        <v>2065</v>
-      </c>
-      <c r="E17" s="4">
-        <v>4589</v>
-      </c>
-      <c r="F17" s="4">
-        <v>622</v>
-      </c>
-      <c r="G17" s="4">
-        <v>422</v>
-      </c>
-      <c r="H17" s="4">
-        <v>6980</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B18" s="4">
-        <v>2816</v>
+        <v>2967</v>
       </c>
       <c r="C18" s="4">
-        <v>3985</v>
+        <v>3491</v>
       </c>
       <c r="D18" s="4">
-        <v>2510</v>
+        <v>2065</v>
       </c>
       <c r="E18" s="4">
-        <v>4469</v>
+        <v>4589</v>
       </c>
       <c r="F18" s="4">
-        <v>607</v>
+        <v>622</v>
       </c>
       <c r="G18" s="4">
-        <v>492</v>
+        <v>422</v>
       </c>
       <c r="H18" s="4">
-        <v>7080</v>
+        <v>6980</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="3">
-        <v>2926</v>
-      </c>
-      <c r="C19" s="3">
-        <v>3707</v>
-      </c>
-      <c r="D19" s="3">
-        <v>2282</v>
-      </c>
-      <c r="E19" s="3">
-        <v>4120</v>
-      </c>
-      <c r="F19" s="3">
-        <v>514</v>
-      </c>
-      <c r="G19" s="3">
-        <v>436</v>
-      </c>
-      <c r="H19" s="3">
-        <v>6991</v>
+        <v>7</v>
+      </c>
+      <c r="B19" s="4">
+        <v>2816</v>
+      </c>
+      <c r="C19" s="4">
+        <v>3985</v>
+      </c>
+      <c r="D19" s="4">
+        <v>2510</v>
+      </c>
+      <c r="E19" s="4">
+        <v>4469</v>
+      </c>
+      <c r="F19" s="4">
+        <v>607</v>
+      </c>
+      <c r="G19" s="4">
+        <v>492</v>
+      </c>
+      <c r="H19" s="4">
+        <v>7080</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="3">
+        <v>2926</v>
+      </c>
+      <c r="C20" s="3">
+        <v>3707</v>
+      </c>
+      <c r="D20" s="3">
+        <v>2282</v>
+      </c>
+      <c r="E20" s="3">
+        <v>4120</v>
+      </c>
+      <c r="F20" s="3">
+        <v>514</v>
+      </c>
+      <c r="G20" s="3">
+        <v>436</v>
+      </c>
+      <c r="H20" s="3">
+        <v>6991</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B21" s="3">
         <v>2832</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C21" s="3">
         <v>3754</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D21" s="3">
         <v>2239</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E21" s="3">
         <v>4312</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F21" s="3">
         <v>788</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G21" s="3">
         <v>453</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H21" s="3">
         <v>7106</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-    </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B23" s="3">
         <v>2709</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C23" s="3">
         <v>4123</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D23" s="3">
         <v>2658</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E23" s="3">
         <v>4265</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F23" s="3">
         <v>1965</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G23" s="3">
         <v>841</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H23" s="3">
         <v>6866</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" s="2"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-    </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="2"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B25" s="3">
         <v>2188</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C25" s="3">
         <v>3738</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D25" s="3">
         <v>1726</v>
       </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3">
+      <c r="E25" s="3"/>
+      <c r="F25" s="3">
         <v>872</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G25" s="3">
         <v>363</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H25" s="3">
         <v>6221</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-    </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" s="3">
-        <v>2218</v>
-      </c>
-      <c r="C26" s="3">
-        <v>3447</v>
-      </c>
-      <c r="D26" s="3">
-        <v>1597</v>
-      </c>
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
       <c r="E26" s="3"/>
-      <c r="F26" s="3">
-        <v>791</v>
-      </c>
-      <c r="G26" s="3">
-        <v>193</v>
-      </c>
-      <c r="H26" s="3">
-        <v>5922</v>
-      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B27" s="3">
-        <v>2291</v>
+        <v>2218</v>
       </c>
       <c r="C27" s="3">
-        <v>3595</v>
+        <v>3447</v>
       </c>
       <c r="D27" s="3">
-        <v>2009</v>
+        <v>1597</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3">
-        <v>934</v>
+        <v>791</v>
       </c>
       <c r="G27" s="3">
-        <v>353</v>
+        <v>193</v>
       </c>
       <c r="H27" s="3">
-        <v>5846</v>
+        <v>5922</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28" s="3">
-        <v>2296</v>
+        <v>2291</v>
       </c>
       <c r="C28" s="3">
-        <v>3708</v>
+        <v>3595</v>
       </c>
       <c r="D28" s="3">
-        <v>1780</v>
+        <v>2009</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3">
-        <v>742</v>
+        <v>934</v>
       </c>
       <c r="G28" s="3">
-        <v>377</v>
+        <v>353</v>
       </c>
       <c r="H28" s="3">
-        <v>5952</v>
+        <v>5846</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B29" s="3">
-        <v>2373</v>
+        <v>2296</v>
       </c>
       <c r="C29" s="3">
-        <v>3515</v>
+        <v>3708</v>
       </c>
       <c r="D29" s="3">
-        <v>1755</v>
+        <v>1780</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3">
-        <v>818</v>
+        <v>742</v>
       </c>
       <c r="G29" s="3">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="H29" s="3">
-        <v>5881</v>
+        <v>5952</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B30" s="3">
-        <v>2456</v>
+        <v>2373</v>
       </c>
       <c r="C30" s="3">
-        <v>3345</v>
+        <v>3515</v>
       </c>
       <c r="D30" s="3">
-        <v>1706</v>
+        <v>1755</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3">
-        <v>719</v>
+        <v>818</v>
       </c>
       <c r="G30" s="3">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="H30" s="3">
-        <v>5982</v>
+        <v>5881</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B31" s="3">
-        <v>2382</v>
+        <v>2456</v>
       </c>
       <c r="C31" s="3">
-        <v>3423</v>
+        <v>3345</v>
       </c>
       <c r="D31" s="3">
-        <v>2053</v>
+        <v>1706</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3">
-        <v>755</v>
+        <v>719</v>
       </c>
       <c r="G31" s="3">
-        <v>390</v>
+        <v>346</v>
       </c>
       <c r="H31" s="3">
-        <v>6019</v>
+        <v>5982</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B32" s="3">
-        <v>2630</v>
+        <v>2382</v>
       </c>
       <c r="C32" s="3">
-        <v>3390</v>
+        <v>3423</v>
       </c>
       <c r="D32" s="3">
-        <v>1911</v>
+        <v>2053</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3">
-        <v>728</v>
+        <v>755</v>
       </c>
       <c r="G32" s="3">
-        <v>411</v>
+        <v>390</v>
       </c>
       <c r="H32" s="3">
-        <v>6293</v>
+        <v>6019</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B33" s="3">
-        <v>2440</v>
+        <v>2630</v>
       </c>
       <c r="C33" s="3">
-        <v>3379</v>
+        <v>3390</v>
       </c>
       <c r="D33" s="3">
-        <v>2036</v>
+        <v>1911</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3">
-        <v>793</v>
+        <v>728</v>
       </c>
       <c r="G33" s="3">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="H33" s="3">
-        <v>6359</v>
+        <v>6293</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B34" s="3">
-        <v>2329</v>
+        <v>2440</v>
       </c>
       <c r="C34" s="3">
-        <v>3333</v>
+        <v>3379</v>
       </c>
       <c r="D34" s="3">
-        <v>2011</v>
+        <v>2036</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3">
-        <v>672</v>
+        <v>793</v>
       </c>
       <c r="G34" s="3">
-        <v>486</v>
+        <v>416</v>
       </c>
       <c r="H34" s="3">
-        <v>6237</v>
+        <v>6359</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" s="2" t="s">
-        <v>9</v>
+      <c r="A35" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="B35" s="3">
-        <v>2288</v>
+        <v>2329</v>
       </c>
       <c r="C35" s="3">
-        <v>3275</v>
+        <v>3333</v>
       </c>
       <c r="D35" s="3">
-        <v>1979</v>
+        <v>2011</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3">
-        <v>870</v>
+        <v>672</v>
       </c>
       <c r="G35" s="3">
-        <v>445</v>
+        <v>486</v>
       </c>
       <c r="H35" s="3">
-        <v>6440</v>
+        <v>6237</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B36" s="4">
-        <v>2256</v>
-      </c>
-      <c r="C36" s="4">
-        <v>3440</v>
-      </c>
-      <c r="D36" s="4">
-        <v>2083</v>
-      </c>
-      <c r="E36" s="2"/>
-      <c r="F36" s="4">
-        <v>707</v>
-      </c>
-      <c r="G36" s="4">
-        <v>470</v>
-      </c>
-      <c r="H36" s="4">
-        <v>6526</v>
+        <v>9</v>
+      </c>
+      <c r="B36" s="3">
+        <v>2288</v>
+      </c>
+      <c r="C36" s="3">
+        <v>3275</v>
+      </c>
+      <c r="D36" s="3">
+        <v>1979</v>
+      </c>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3">
+        <v>870</v>
+      </c>
+      <c r="G36" s="3">
+        <v>445</v>
+      </c>
+      <c r="H36" s="3">
+        <v>6440</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="B37" s="4">
-        <v>2279</v>
+        <v>2256</v>
       </c>
       <c r="C37" s="4">
-        <v>3257</v>
+        <v>3440</v>
       </c>
       <c r="D37" s="4">
-        <v>1713</v>
+        <v>2083</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="4">
-        <v>691</v>
+        <v>707</v>
       </c>
       <c r="G37" s="4">
-        <v>488</v>
+        <v>470</v>
       </c>
       <c r="H37" s="4">
-        <v>6618</v>
+        <v>6526</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B38" s="4">
-        <v>2265</v>
+        <v>2279</v>
       </c>
       <c r="C38" s="4">
-        <v>3145</v>
+        <v>3257</v>
       </c>
       <c r="D38" s="4">
-        <v>1874</v>
+        <v>1713</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="4">
+        <v>691</v>
+      </c>
+      <c r="G38" s="4">
+        <v>488</v>
+      </c>
+      <c r="H38" s="4">
+        <v>6618</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" s="4">
+        <v>2265</v>
+      </c>
+      <c r="C39" s="4">
+        <v>3145</v>
+      </c>
+      <c r="D39" s="4">
+        <v>1874</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" s="4">
         <v>781</v>
       </c>
-      <c r="G38" s="4">
+      <c r="G39" s="4">
         <v>497</v>
       </c>
-      <c r="H38" s="4">
+      <c r="H39" s="4">
         <v>6520</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A39" s="2"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-    </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="2"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A41" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B41" s="4">
         <v>2505</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C41" s="4">
         <v>3736</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D41" s="4">
         <v>2075</v>
       </c>
-      <c r="E40" s="2"/>
-      <c r="F40" s="4">
+      <c r="E41" s="2"/>
+      <c r="F41" s="4">
         <v>666</v>
       </c>
-      <c r="G40" s="4">
+      <c r="G41" s="4">
         <v>432</v>
       </c>
-      <c r="H40" s="4">
+      <c r="H41" s="4">
         <v>6427</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A41" s="2"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-    </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="2"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A43" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B43" s="4">
         <v>2484</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C43" s="4">
         <v>3886</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D43" s="4">
         <v>2051</v>
       </c>
-      <c r="E42" s="2"/>
-      <c r="F42" s="4">
+      <c r="E43" s="2"/>
+      <c r="F43" s="4">
         <v>1126</v>
       </c>
-      <c r="G42" s="4">
+      <c r="G43" s="4">
         <v>394</v>
       </c>
-      <c r="H42" s="4">
+      <c r="H43" s="4">
         <v>6136</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A43" s="2"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-    </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A44" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B44" s="4">
-        <v>2135</v>
-      </c>
-      <c r="C44" s="4">
-        <v>3364</v>
-      </c>
-      <c r="D44" s="4">
-        <v>1740</v>
-      </c>
+      <c r="A44" s="2"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
       <c r="E44" s="2"/>
-      <c r="F44" s="4">
-        <v>1066</v>
-      </c>
-      <c r="G44" s="4">
-        <v>327</v>
-      </c>
-      <c r="H44" s="4">
-        <v>5980</v>
-      </c>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B45" s="4">
-        <v>2666</v>
+        <v>2135</v>
       </c>
       <c r="C45" s="4">
-        <v>3286</v>
+        <v>3364</v>
       </c>
       <c r="D45" s="4">
-        <v>2008</v>
+        <v>1740</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="4">
-        <v>784</v>
+        <v>1066</v>
       </c>
       <c r="G45" s="4">
-        <v>402</v>
+        <v>327</v>
       </c>
       <c r="H45" s="4">
-        <v>6535</v>
+        <v>5980</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B46" s="4">
-        <v>2461</v>
-      </c>
-      <c r="C46" s="3">
-        <v>3668</v>
+        <v>2666</v>
+      </c>
+      <c r="C46" s="4">
+        <v>3286</v>
       </c>
       <c r="D46" s="4">
-        <v>2303</v>
+        <v>2008</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="4">
-        <v>1239</v>
+        <v>784</v>
       </c>
       <c r="G46" s="4">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="H46" s="4">
-        <v>6732</v>
+        <v>6535</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B47" s="4">
-        <v>2576</v>
-      </c>
-      <c r="C47" s="4">
-        <v>4137</v>
+        <v>2461</v>
+      </c>
+      <c r="C47" s="3">
+        <v>3668</v>
       </c>
       <c r="D47" s="4">
-        <v>2049</v>
+        <v>2303</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="4">
+        <v>1239</v>
+      </c>
+      <c r="G47" s="4">
+        <v>396</v>
+      </c>
+      <c r="H47" s="4">
+        <v>6732</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A48" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B48" s="4">
+        <v>2576</v>
+      </c>
+      <c r="C48" s="4">
+        <v>4137</v>
+      </c>
+      <c r="D48" s="4">
+        <v>2049</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" s="4">
         <v>1473</v>
       </c>
-      <c r="G47" s="4">
+      <c r="G48" s="4">
         <v>335</v>
       </c>
-      <c r="H47" s="4">
+      <c r="H48" s="4">
         <v>6306</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A48" s="2"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-    </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A49" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B49" s="4">
-        <v>2273</v>
-      </c>
-      <c r="C49" s="4">
-        <v>3683</v>
-      </c>
-      <c r="D49" s="4">
-        <v>1674</v>
-      </c>
+      <c r="A49" s="2"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
       <c r="E49" s="2"/>
-      <c r="F49" s="4">
-        <v>1138</v>
-      </c>
-      <c r="G49" s="4">
-        <v>293</v>
-      </c>
-      <c r="H49" s="4">
-        <v>6128</v>
-      </c>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B50" s="4">
-        <v>2563</v>
+        <v>2273</v>
       </c>
       <c r="C50" s="4">
-        <v>3081</v>
+        <v>3683</v>
       </c>
       <c r="D50" s="4">
-        <v>2051</v>
+        <v>1674</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="4">
-        <v>776</v>
+        <v>1138</v>
       </c>
       <c r="G50" s="4">
-        <v>475</v>
+        <v>293</v>
       </c>
       <c r="H50" s="4">
-        <v>6557</v>
+        <v>6128</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B51" s="4">
-        <v>2422</v>
+        <v>2563</v>
       </c>
       <c r="C51" s="4">
-        <v>3313</v>
+        <v>3081</v>
       </c>
       <c r="D51" s="4">
-        <v>2370</v>
+        <v>2051</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="4">
-        <v>311</v>
+        <v>776</v>
       </c>
       <c r="G51" s="4">
-        <v>499</v>
+        <v>475</v>
       </c>
       <c r="H51" s="4">
-        <v>6730</v>
+        <v>6557</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B52" s="4">
-        <v>2696</v>
+        <v>2422</v>
       </c>
       <c r="C52" s="4">
-        <v>4253</v>
+        <v>3313</v>
       </c>
       <c r="D52" s="4">
-        <v>2987</v>
+        <v>2370</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="4">
+        <v>311</v>
+      </c>
+      <c r="G52" s="4">
+        <v>499</v>
+      </c>
+      <c r="H52" s="4">
+        <v>6730</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A53" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B53" s="4">
+        <v>2696</v>
+      </c>
+      <c r="C53" s="4">
+        <v>4253</v>
+      </c>
+      <c r="D53" s="4">
+        <v>2987</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" s="4">
         <v>1707</v>
       </c>
-      <c r="G52" s="4">
+      <c r="G53" s="4">
         <v>442</v>
       </c>
-      <c r="H52" s="4">
+      <c r="H53" s="4">
         <v>6878</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A53" s="2"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-    </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A54" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="A54" s="2"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
@@ -1848,20 +1865,20 @@
       <c r="H54" s="4"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A55" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
+      <c r="A55" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -1873,7 +1890,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -1883,6 +1900,18 @@
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
     </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A58" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/pathologiesRespiFrance.xlsx
+++ b/pathologiesRespiFrance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christophe Godlewski\MEGAsync\GitHub\covid19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D6169FC-C61B-4D75-AECD-6C44A934830B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A61BB7AB-AE08-4329-BB64-A3A4A304A87B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C7A5E7A9-40F6-48C7-AF9F-3089D8153C5F}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>2020-S43</t>
   </si>
@@ -230,6 +230,9 @@
   </si>
   <si>
     <t>2021-S06</t>
+  </si>
+  <si>
+    <t>2021-S07</t>
   </si>
 </sst>
 </file>
@@ -615,11 +618,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74130894-499C-4806-A027-6CF74BEEC805}">
-  <dimension ref="A1:H58"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -664,1210 +667,1224 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B2" s="2">
-        <v>2277</v>
+        <v>2639</v>
       </c>
       <c r="C2" s="2">
-        <v>3348</v>
+        <v>3578</v>
       </c>
       <c r="D2" s="2">
-        <v>1761</v>
+        <v>1707</v>
       </c>
       <c r="E2" s="2">
-        <v>5822</v>
+        <v>5807</v>
       </c>
       <c r="F2" s="2">
-        <v>860</v>
+        <v>810</v>
       </c>
       <c r="G2" s="2">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H2" s="2">
-        <v>6613</v>
+        <v>6434</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B3" s="2">
-        <v>2570</v>
+        <v>2277</v>
       </c>
       <c r="C3" s="2">
-        <v>3668</v>
+        <v>3348</v>
       </c>
       <c r="D3" s="2">
-        <v>2101</v>
+        <v>1761</v>
       </c>
       <c r="E3" s="2">
-        <v>5799</v>
+        <v>5822</v>
       </c>
       <c r="F3" s="2">
-        <v>681</v>
+        <v>860</v>
       </c>
       <c r="G3" s="2">
-        <v>474</v>
+        <v>451</v>
       </c>
       <c r="H3" s="2">
-        <v>6535</v>
+        <v>6613</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B4" s="2">
-        <v>2394</v>
+        <v>2570</v>
       </c>
       <c r="C4" s="2">
-        <v>3437</v>
+        <v>3668</v>
       </c>
       <c r="D4" s="2">
-        <v>1954</v>
+        <v>2101</v>
       </c>
       <c r="E4" s="2">
-        <v>5778</v>
+        <v>5799</v>
       </c>
       <c r="F4" s="2">
-        <v>1058</v>
+        <v>681</v>
       </c>
       <c r="G4" s="2">
-        <v>444</v>
+        <v>474</v>
       </c>
       <c r="H4" s="2">
-        <v>6628</v>
+        <v>6535</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B5" s="2">
-        <v>2609</v>
+        <v>2394</v>
       </c>
       <c r="C5" s="2">
-        <v>3265</v>
+        <v>3437</v>
       </c>
       <c r="D5" s="2">
-        <v>2106</v>
+        <v>1954</v>
       </c>
       <c r="E5" s="2">
-        <v>5743</v>
+        <v>5778</v>
       </c>
       <c r="F5" s="2">
-        <v>1172</v>
+        <v>1058</v>
       </c>
       <c r="G5" s="2">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="H5" s="2">
-        <v>6776</v>
+        <v>6628</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B6" s="2">
-        <v>2649</v>
+        <v>2609</v>
       </c>
       <c r="C6" s="2">
-        <v>3611</v>
+        <v>3265</v>
       </c>
       <c r="D6" s="2">
-        <v>2484</v>
+        <v>2106</v>
       </c>
       <c r="E6" s="2">
-        <v>5857</v>
+        <v>5743</v>
       </c>
       <c r="F6" s="2">
-        <v>1354</v>
+        <v>1172</v>
       </c>
       <c r="G6" s="2">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="H6" s="2">
-        <v>7031</v>
+        <v>6776</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B7" s="2">
-        <v>2249</v>
+        <v>2649</v>
       </c>
       <c r="C7" s="2">
-        <v>3660</v>
+        <v>3611</v>
       </c>
       <c r="D7" s="2">
-        <v>2506</v>
+        <v>2484</v>
       </c>
       <c r="E7" s="2">
-        <v>5796</v>
+        <v>5857</v>
       </c>
       <c r="F7" s="2">
-        <v>1055</v>
+        <v>1354</v>
       </c>
       <c r="G7" s="2">
-        <v>530</v>
+        <v>470</v>
       </c>
       <c r="H7" s="2">
-        <v>7053</v>
+        <v>7031</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B8" s="2">
-        <v>2224</v>
+        <v>2249</v>
       </c>
       <c r="C8" s="2">
-        <v>3236</v>
+        <v>3660</v>
       </c>
       <c r="D8" s="2">
-        <v>2085</v>
+        <v>2506</v>
       </c>
       <c r="E8" s="2">
-        <v>5543</v>
+        <v>5796</v>
       </c>
       <c r="F8" s="2">
-        <v>1234</v>
+        <v>1055</v>
       </c>
       <c r="G8" s="2">
-        <v>445</v>
+        <v>530</v>
       </c>
       <c r="H8" s="2">
-        <v>6928</v>
+        <v>7053</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="B9" s="2">
-        <v>2316</v>
+        <v>2224</v>
       </c>
       <c r="C9" s="2">
-        <v>3213</v>
+        <v>3236</v>
       </c>
       <c r="D9" s="2">
-        <v>2170</v>
+        <v>2085</v>
       </c>
       <c r="E9" s="2">
-        <v>5312</v>
+        <v>5543</v>
       </c>
       <c r="F9" s="2">
-        <v>800</v>
+        <v>1234</v>
       </c>
       <c r="G9" s="2">
-        <v>421</v>
+        <v>445</v>
       </c>
       <c r="H9" s="2">
-        <v>6957</v>
+        <v>6928</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B10" s="2">
-        <v>2615</v>
+        <v>2316</v>
       </c>
       <c r="C10" s="2">
-        <v>3852</v>
+        <v>3213</v>
       </c>
       <c r="D10" s="2">
-        <v>2035</v>
+        <v>2170</v>
       </c>
       <c r="E10" s="2">
-        <v>5315</v>
+        <v>5312</v>
       </c>
       <c r="F10" s="2">
-        <v>963</v>
+        <v>800</v>
       </c>
       <c r="G10" s="2">
-        <v>470</v>
+        <v>421</v>
       </c>
       <c r="H10" s="2">
-        <v>6774</v>
+        <v>6957</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B11" s="2">
-        <v>2864</v>
+        <v>2615</v>
       </c>
       <c r="C11" s="2">
-        <v>3531</v>
+        <v>3852</v>
       </c>
       <c r="D11" s="2">
-        <v>2661</v>
+        <v>2035</v>
       </c>
       <c r="E11" s="2">
-        <v>5505</v>
+        <v>5315</v>
       </c>
       <c r="F11" s="2">
-        <v>1176</v>
+        <v>963</v>
       </c>
       <c r="G11" s="2">
-        <v>494</v>
+        <v>470</v>
       </c>
       <c r="H11" s="2">
-        <v>6953</v>
+        <v>6774</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B12" s="2">
-        <v>2731</v>
+        <v>2864</v>
       </c>
       <c r="C12" s="2">
-        <v>3634</v>
+        <v>3531</v>
       </c>
       <c r="D12" s="2">
-        <v>2757</v>
+        <v>2661</v>
       </c>
       <c r="E12" s="2">
-        <v>5530</v>
+        <v>5505</v>
       </c>
       <c r="F12" s="2">
-        <v>1081</v>
+        <v>1176</v>
       </c>
       <c r="G12" s="2">
-        <v>569</v>
+        <v>494</v>
       </c>
       <c r="H12" s="2">
-        <v>7146</v>
+        <v>6953</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" s="2">
-        <v>2607</v>
+        <v>2731</v>
       </c>
       <c r="C13" s="2">
-        <v>3547</v>
+        <v>3634</v>
       </c>
       <c r="D13" s="2">
-        <v>2478</v>
+        <v>2757</v>
       </c>
       <c r="E13" s="2">
-        <v>5645</v>
+        <v>5530</v>
       </c>
       <c r="F13" s="2">
-        <v>1467</v>
+        <v>1081</v>
       </c>
       <c r="G13" s="2">
-        <v>527</v>
+        <v>569</v>
       </c>
       <c r="H13" s="2">
-        <v>7281</v>
+        <v>7146</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" s="2">
-        <v>2736</v>
+        <v>2607</v>
       </c>
       <c r="C14" s="2">
-        <v>3700</v>
+        <v>3547</v>
       </c>
       <c r="D14" s="2">
-        <v>2746</v>
+        <v>2478</v>
       </c>
       <c r="E14" s="2">
-        <v>5669</v>
+        <v>5645</v>
       </c>
       <c r="F14" s="2">
-        <v>1076</v>
+        <v>1467</v>
       </c>
       <c r="G14" s="2">
-        <v>554</v>
+        <v>527</v>
       </c>
       <c r="H14" s="2">
-        <v>7393</v>
+        <v>7281</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2">
-        <v>2786</v>
+        <v>2736</v>
       </c>
       <c r="C15" s="2">
-        <v>3593</v>
+        <v>3700</v>
       </c>
       <c r="D15" s="2">
-        <v>2260</v>
+        <v>2746</v>
       </c>
       <c r="E15" s="2">
-        <v>5635</v>
+        <v>5669</v>
       </c>
       <c r="F15" s="2">
-        <v>1726</v>
+        <v>1076</v>
       </c>
       <c r="G15" s="2">
-        <v>500</v>
+        <v>554</v>
       </c>
       <c r="H15" s="2">
-        <v>7351</v>
+        <v>7393</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B16" s="2">
-        <v>2685</v>
+        <v>2786</v>
       </c>
       <c r="C16" s="2">
-        <v>3708</v>
+        <v>3593</v>
       </c>
       <c r="D16" s="2">
-        <v>2585</v>
+        <v>2260</v>
       </c>
       <c r="E16" s="2">
-        <v>5383</v>
+        <v>5635</v>
       </c>
       <c r="F16" s="2">
-        <v>873</v>
+        <v>1726</v>
       </c>
       <c r="G16" s="2">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="H16" s="2">
-        <v>7253</v>
+        <v>7351</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="2">
+        <v>2685</v>
+      </c>
+      <c r="C17" s="2">
+        <v>3708</v>
+      </c>
+      <c r="D17" s="2">
+        <v>2585</v>
+      </c>
+      <c r="E17" s="2">
+        <v>5383</v>
+      </c>
+      <c r="F17" s="2">
+        <v>873</v>
+      </c>
+      <c r="G17" s="2">
+        <v>506</v>
+      </c>
+      <c r="H17" s="2">
+        <v>7253</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B18" s="2">
         <v>2608</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C18" s="2">
         <v>3688</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D18" s="2">
         <v>2264</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E18" s="2">
         <v>4891</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F18" s="2">
         <v>1056</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G18" s="2">
         <v>534</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H18" s="2">
         <v>6995</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="4">
-        <v>2967</v>
-      </c>
-      <c r="C18" s="4">
-        <v>3491</v>
-      </c>
-      <c r="D18" s="4">
-        <v>2065</v>
-      </c>
-      <c r="E18" s="4">
-        <v>4589</v>
-      </c>
-      <c r="F18" s="4">
-        <v>622</v>
-      </c>
-      <c r="G18" s="4">
-        <v>422</v>
-      </c>
-      <c r="H18" s="4">
-        <v>6980</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B19" s="4">
-        <v>2816</v>
+        <v>2967</v>
       </c>
       <c r="C19" s="4">
-        <v>3985</v>
+        <v>3491</v>
       </c>
       <c r="D19" s="4">
-        <v>2510</v>
+        <v>2065</v>
       </c>
       <c r="E19" s="4">
-        <v>4469</v>
+        <v>4589</v>
       </c>
       <c r="F19" s="4">
-        <v>607</v>
+        <v>622</v>
       </c>
       <c r="G19" s="4">
-        <v>492</v>
+        <v>422</v>
       </c>
       <c r="H19" s="4">
-        <v>7080</v>
+        <v>6980</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="3">
-        <v>2926</v>
-      </c>
-      <c r="C20" s="3">
-        <v>3707</v>
-      </c>
-      <c r="D20" s="3">
-        <v>2282</v>
-      </c>
-      <c r="E20" s="3">
-        <v>4120</v>
-      </c>
-      <c r="F20" s="3">
-        <v>514</v>
-      </c>
-      <c r="G20" s="3">
-        <v>436</v>
-      </c>
-      <c r="H20" s="3">
-        <v>6991</v>
+        <v>7</v>
+      </c>
+      <c r="B20" s="4">
+        <v>2816</v>
+      </c>
+      <c r="C20" s="4">
+        <v>3985</v>
+      </c>
+      <c r="D20" s="4">
+        <v>2510</v>
+      </c>
+      <c r="E20" s="4">
+        <v>4469</v>
+      </c>
+      <c r="F20" s="4">
+        <v>607</v>
+      </c>
+      <c r="G20" s="4">
+        <v>492</v>
+      </c>
+      <c r="H20" s="4">
+        <v>7080</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3">
+        <v>2926</v>
+      </c>
+      <c r="C21" s="3">
+        <v>3707</v>
+      </c>
+      <c r="D21" s="3">
+        <v>2282</v>
+      </c>
+      <c r="E21" s="3">
+        <v>4120</v>
+      </c>
+      <c r="F21" s="3">
+        <v>514</v>
+      </c>
+      <c r="G21" s="3">
+        <v>436</v>
+      </c>
+      <c r="H21" s="3">
+        <v>6991</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B22" s="3">
         <v>2832</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C22" s="3">
         <v>3754</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D22" s="3">
         <v>2239</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E22" s="3">
         <v>4312</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F22" s="3">
         <v>788</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G22" s="3">
         <v>453</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H22" s="3">
         <v>7106</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-    </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B24" s="3">
         <v>2709</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C24" s="3">
         <v>4123</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D24" s="3">
         <v>2658</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E24" s="3">
         <v>4265</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F24" s="3">
         <v>1965</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G24" s="3">
         <v>841</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H24" s="3">
         <v>6866</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" s="2"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-    </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="2"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B26" s="3">
         <v>2188</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C26" s="3">
         <v>3738</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D26" s="3">
         <v>1726</v>
       </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3">
+      <c r="E26" s="3"/>
+      <c r="F26" s="3">
         <v>872</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G26" s="3">
         <v>363</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H26" s="3">
         <v>6221</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-    </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27" s="3">
-        <v>2218</v>
-      </c>
-      <c r="C27" s="3">
-        <v>3447</v>
-      </c>
-      <c r="D27" s="3">
-        <v>1597</v>
-      </c>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
       <c r="E27" s="3"/>
-      <c r="F27" s="3">
-        <v>791</v>
-      </c>
-      <c r="G27" s="3">
-        <v>193</v>
-      </c>
-      <c r="H27" s="3">
-        <v>5922</v>
-      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B28" s="3">
-        <v>2291</v>
+        <v>2218</v>
       </c>
       <c r="C28" s="3">
-        <v>3595</v>
+        <v>3447</v>
       </c>
       <c r="D28" s="3">
-        <v>2009</v>
+        <v>1597</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3">
-        <v>934</v>
+        <v>791</v>
       </c>
       <c r="G28" s="3">
-        <v>353</v>
+        <v>193</v>
       </c>
       <c r="H28" s="3">
-        <v>5846</v>
+        <v>5922</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B29" s="3">
-        <v>2296</v>
+        <v>2291</v>
       </c>
       <c r="C29" s="3">
-        <v>3708</v>
+        <v>3595</v>
       </c>
       <c r="D29" s="3">
-        <v>1780</v>
+        <v>2009</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3">
-        <v>742</v>
+        <v>934</v>
       </c>
       <c r="G29" s="3">
-        <v>377</v>
+        <v>353</v>
       </c>
       <c r="H29" s="3">
-        <v>5952</v>
+        <v>5846</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B30" s="3">
-        <v>2373</v>
+        <v>2296</v>
       </c>
       <c r="C30" s="3">
-        <v>3515</v>
+        <v>3708</v>
       </c>
       <c r="D30" s="3">
-        <v>1755</v>
+        <v>1780</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3">
-        <v>818</v>
+        <v>742</v>
       </c>
       <c r="G30" s="3">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="H30" s="3">
-        <v>5881</v>
+        <v>5952</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B31" s="3">
-        <v>2456</v>
+        <v>2373</v>
       </c>
       <c r="C31" s="3">
-        <v>3345</v>
+        <v>3515</v>
       </c>
       <c r="D31" s="3">
-        <v>1706</v>
+        <v>1755</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3">
-        <v>719</v>
+        <v>818</v>
       </c>
       <c r="G31" s="3">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="H31" s="3">
-        <v>5982</v>
+        <v>5881</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B32" s="3">
-        <v>2382</v>
+        <v>2456</v>
       </c>
       <c r="C32" s="3">
-        <v>3423</v>
+        <v>3345</v>
       </c>
       <c r="D32" s="3">
-        <v>2053</v>
+        <v>1706</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3">
-        <v>755</v>
+        <v>719</v>
       </c>
       <c r="G32" s="3">
-        <v>390</v>
+        <v>346</v>
       </c>
       <c r="H32" s="3">
-        <v>6019</v>
+        <v>5982</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B33" s="3">
-        <v>2630</v>
+        <v>2382</v>
       </c>
       <c r="C33" s="3">
-        <v>3390</v>
+        <v>3423</v>
       </c>
       <c r="D33" s="3">
-        <v>1911</v>
+        <v>2053</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3">
-        <v>728</v>
+        <v>755</v>
       </c>
       <c r="G33" s="3">
-        <v>411</v>
+        <v>390</v>
       </c>
       <c r="H33" s="3">
-        <v>6293</v>
+        <v>6019</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B34" s="3">
-        <v>2440</v>
+        <v>2630</v>
       </c>
       <c r="C34" s="3">
-        <v>3379</v>
+        <v>3390</v>
       </c>
       <c r="D34" s="3">
-        <v>2036</v>
+        <v>1911</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3">
-        <v>793</v>
+        <v>728</v>
       </c>
       <c r="G34" s="3">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="H34" s="3">
-        <v>6359</v>
+        <v>6293</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B35" s="3">
-        <v>2329</v>
+        <v>2440</v>
       </c>
       <c r="C35" s="3">
-        <v>3333</v>
+        <v>3379</v>
       </c>
       <c r="D35" s="3">
-        <v>2011</v>
+        <v>2036</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3">
-        <v>672</v>
+        <v>793</v>
       </c>
       <c r="G35" s="3">
-        <v>486</v>
+        <v>416</v>
       </c>
       <c r="H35" s="3">
-        <v>6237</v>
+        <v>6359</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" s="2" t="s">
-        <v>9</v>
+      <c r="A36" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="B36" s="3">
-        <v>2288</v>
+        <v>2329</v>
       </c>
       <c r="C36" s="3">
-        <v>3275</v>
+        <v>3333</v>
       </c>
       <c r="D36" s="3">
-        <v>1979</v>
+        <v>2011</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3">
-        <v>870</v>
+        <v>672</v>
       </c>
       <c r="G36" s="3">
-        <v>445</v>
+        <v>486</v>
       </c>
       <c r="H36" s="3">
-        <v>6440</v>
+        <v>6237</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B37" s="4">
-        <v>2256</v>
-      </c>
-      <c r="C37" s="4">
-        <v>3440</v>
-      </c>
-      <c r="D37" s="4">
-        <v>2083</v>
-      </c>
-      <c r="E37" s="2"/>
-      <c r="F37" s="4">
-        <v>707</v>
-      </c>
-      <c r="G37" s="4">
-        <v>470</v>
-      </c>
-      <c r="H37" s="4">
-        <v>6526</v>
+        <v>9</v>
+      </c>
+      <c r="B37" s="3">
+        <v>2288</v>
+      </c>
+      <c r="C37" s="3">
+        <v>3275</v>
+      </c>
+      <c r="D37" s="3">
+        <v>1979</v>
+      </c>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3">
+        <v>870</v>
+      </c>
+      <c r="G37" s="3">
+        <v>445</v>
+      </c>
+      <c r="H37" s="3">
+        <v>6440</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="B38" s="4">
-        <v>2279</v>
+        <v>2256</v>
       </c>
       <c r="C38" s="4">
-        <v>3257</v>
+        <v>3440</v>
       </c>
       <c r="D38" s="4">
-        <v>1713</v>
+        <v>2083</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="4">
-        <v>691</v>
+        <v>707</v>
       </c>
       <c r="G38" s="4">
-        <v>488</v>
+        <v>470</v>
       </c>
       <c r="H38" s="4">
-        <v>6618</v>
+        <v>6526</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B39" s="4">
-        <v>2265</v>
+        <v>2279</v>
       </c>
       <c r="C39" s="4">
-        <v>3145</v>
+        <v>3257</v>
       </c>
       <c r="D39" s="4">
-        <v>1874</v>
+        <v>1713</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="4">
+        <v>691</v>
+      </c>
+      <c r="G39" s="4">
+        <v>488</v>
+      </c>
+      <c r="H39" s="4">
+        <v>6618</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A40" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" s="4">
+        <v>2265</v>
+      </c>
+      <c r="C40" s="4">
+        <v>3145</v>
+      </c>
+      <c r="D40" s="4">
+        <v>1874</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" s="4">
         <v>781</v>
       </c>
-      <c r="G39" s="4">
+      <c r="G40" s="4">
         <v>497</v>
       </c>
-      <c r="H39" s="4">
+      <c r="H40" s="4">
         <v>6520</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A40" s="2"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-    </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="2"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A42" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B42" s="4">
         <v>2505</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C42" s="4">
         <v>3736</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D42" s="4">
         <v>2075</v>
       </c>
-      <c r="E41" s="2"/>
-      <c r="F41" s="4">
+      <c r="E42" s="2"/>
+      <c r="F42" s="4">
         <v>666</v>
       </c>
-      <c r="G41" s="4">
+      <c r="G42" s="4">
         <v>432</v>
       </c>
-      <c r="H41" s="4">
+      <c r="H42" s="4">
         <v>6427</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A42" s="2"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-    </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="2"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B44" s="4">
         <v>2484</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C44" s="4">
         <v>3886</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D44" s="4">
         <v>2051</v>
       </c>
-      <c r="E43" s="2"/>
-      <c r="F43" s="4">
+      <c r="E44" s="2"/>
+      <c r="F44" s="4">
         <v>1126</v>
       </c>
-      <c r="G43" s="4">
+      <c r="G44" s="4">
         <v>394</v>
       </c>
-      <c r="H43" s="4">
+      <c r="H44" s="4">
         <v>6136</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A44" s="2"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-    </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A45" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B45" s="4">
-        <v>2135</v>
-      </c>
-      <c r="C45" s="4">
-        <v>3364</v>
-      </c>
-      <c r="D45" s="4">
-        <v>1740</v>
-      </c>
+      <c r="A45" s="2"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
       <c r="E45" s="2"/>
-      <c r="F45" s="4">
-        <v>1066</v>
-      </c>
-      <c r="G45" s="4">
-        <v>327</v>
-      </c>
-      <c r="H45" s="4">
-        <v>5980</v>
-      </c>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B46" s="4">
-        <v>2666</v>
+        <v>2135</v>
       </c>
       <c r="C46" s="4">
-        <v>3286</v>
+        <v>3364</v>
       </c>
       <c r="D46" s="4">
-        <v>2008</v>
+        <v>1740</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="4">
-        <v>784</v>
+        <v>1066</v>
       </c>
       <c r="G46" s="4">
-        <v>402</v>
+        <v>327</v>
       </c>
       <c r="H46" s="4">
-        <v>6535</v>
+        <v>5980</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B47" s="4">
-        <v>2461</v>
-      </c>
-      <c r="C47" s="3">
-        <v>3668</v>
+        <v>2666</v>
+      </c>
+      <c r="C47" s="4">
+        <v>3286</v>
       </c>
       <c r="D47" s="4">
-        <v>2303</v>
+        <v>2008</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="4">
-        <v>1239</v>
+        <v>784</v>
       </c>
       <c r="G47" s="4">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="H47" s="4">
-        <v>6732</v>
+        <v>6535</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B48" s="4">
-        <v>2576</v>
-      </c>
-      <c r="C48" s="4">
-        <v>4137</v>
+        <v>2461</v>
+      </c>
+      <c r="C48" s="3">
+        <v>3668</v>
       </c>
       <c r="D48" s="4">
-        <v>2049</v>
+        <v>2303</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="4">
+        <v>1239</v>
+      </c>
+      <c r="G48" s="4">
+        <v>396</v>
+      </c>
+      <c r="H48" s="4">
+        <v>6732</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A49" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B49" s="4">
+        <v>2576</v>
+      </c>
+      <c r="C49" s="4">
+        <v>4137</v>
+      </c>
+      <c r="D49" s="4">
+        <v>2049</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" s="4">
         <v>1473</v>
       </c>
-      <c r="G48" s="4">
+      <c r="G49" s="4">
         <v>335</v>
       </c>
-      <c r="H48" s="4">
+      <c r="H49" s="4">
         <v>6306</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A49" s="2"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-    </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A50" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B50" s="4">
-        <v>2273</v>
-      </c>
-      <c r="C50" s="4">
-        <v>3683</v>
-      </c>
-      <c r="D50" s="4">
-        <v>1674</v>
-      </c>
+      <c r="A50" s="2"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
       <c r="E50" s="2"/>
-      <c r="F50" s="4">
-        <v>1138</v>
-      </c>
-      <c r="G50" s="4">
-        <v>293</v>
-      </c>
-      <c r="H50" s="4">
-        <v>6128</v>
-      </c>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B51" s="4">
-        <v>2563</v>
+        <v>2273</v>
       </c>
       <c r="C51" s="4">
-        <v>3081</v>
+        <v>3683</v>
       </c>
       <c r="D51" s="4">
-        <v>2051</v>
+        <v>1674</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="4">
-        <v>776</v>
+        <v>1138</v>
       </c>
       <c r="G51" s="4">
-        <v>475</v>
+        <v>293</v>
       </c>
       <c r="H51" s="4">
-        <v>6557</v>
+        <v>6128</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B52" s="4">
-        <v>2422</v>
+        <v>2563</v>
       </c>
       <c r="C52" s="4">
-        <v>3313</v>
+        <v>3081</v>
       </c>
       <c r="D52" s="4">
-        <v>2370</v>
+        <v>2051</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="4">
-        <v>311</v>
+        <v>776</v>
       </c>
       <c r="G52" s="4">
-        <v>499</v>
+        <v>475</v>
       </c>
       <c r="H52" s="4">
-        <v>6730</v>
+        <v>6557</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B53" s="4">
-        <v>2696</v>
+        <v>2422</v>
       </c>
       <c r="C53" s="4">
-        <v>4253</v>
+        <v>3313</v>
       </c>
       <c r="D53" s="4">
-        <v>2987</v>
+        <v>2370</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="4">
+        <v>311</v>
+      </c>
+      <c r="G53" s="4">
+        <v>499</v>
+      </c>
+      <c r="H53" s="4">
+        <v>6730</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A54" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B54" s="4">
+        <v>2696</v>
+      </c>
+      <c r="C54" s="4">
+        <v>4253</v>
+      </c>
+      <c r="D54" s="4">
+        <v>2987</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" s="4">
         <v>1707</v>
       </c>
-      <c r="G53" s="4">
+      <c r="G54" s="4">
         <v>442</v>
       </c>
-      <c r="H53" s="4">
+      <c r="H54" s="4">
         <v>6878</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A54" s="2"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-    </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A55" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="A55" s="2"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
@@ -1877,20 +1894,20 @@
       <c r="H55" s="4"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A56" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
+      <c r="A56" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -1902,7 +1919,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -1912,6 +1929,18 @@
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
     </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A59" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/pathologiesRespiFrance.xlsx
+++ b/pathologiesRespiFrance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christophe Godlewski\MEGAsync\GitHub\covid19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A61BB7AB-AE08-4329-BB64-A3A4A304A87B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9DC0B8B-0846-4994-B757-D9B725E93E98}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C7A5E7A9-40F6-48C7-AF9F-3089D8153C5F}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>2020-S43</t>
   </si>
@@ -233,6 +233,9 @@
   </si>
   <si>
     <t>2021-S07</t>
+  </si>
+  <si>
+    <t>2021-S08</t>
   </si>
 </sst>
 </file>
@@ -618,11 +621,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74130894-499C-4806-A027-6CF74BEEC805}">
-  <dimension ref="A1:H59"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -667,1236 +670,1250 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B2" s="2">
-        <v>2639</v>
+        <v>2470</v>
       </c>
       <c r="C2" s="2">
-        <v>3578</v>
+        <v>3410</v>
       </c>
       <c r="D2" s="2">
-        <v>1707</v>
+        <v>1941</v>
       </c>
       <c r="E2" s="2">
-        <v>5807</v>
+        <v>5610</v>
       </c>
       <c r="F2" s="2">
-        <v>810</v>
+        <v>880</v>
       </c>
       <c r="G2" s="2">
-        <v>449</v>
+        <v>396</v>
       </c>
       <c r="H2" s="2">
-        <v>6434</v>
+        <v>6393</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3" s="2">
-        <v>2277</v>
+        <v>2639</v>
       </c>
       <c r="C3" s="2">
-        <v>3348</v>
+        <v>3578</v>
       </c>
       <c r="D3" s="2">
-        <v>1761</v>
+        <v>1707</v>
       </c>
       <c r="E3" s="2">
-        <v>5822</v>
+        <v>5807</v>
       </c>
       <c r="F3" s="2">
-        <v>860</v>
+        <v>810</v>
       </c>
       <c r="G3" s="2">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H3" s="2">
-        <v>6613</v>
+        <v>6434</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B4" s="2">
-        <v>2570</v>
+        <v>2277</v>
       </c>
       <c r="C4" s="2">
-        <v>3668</v>
+        <v>3348</v>
       </c>
       <c r="D4" s="2">
-        <v>2101</v>
+        <v>1761</v>
       </c>
       <c r="E4" s="2">
-        <v>5799</v>
+        <v>5822</v>
       </c>
       <c r="F4" s="2">
-        <v>681</v>
+        <v>860</v>
       </c>
       <c r="G4" s="2">
-        <v>474</v>
+        <v>451</v>
       </c>
       <c r="H4" s="2">
-        <v>6535</v>
+        <v>6613</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B5" s="2">
-        <v>2394</v>
+        <v>2570</v>
       </c>
       <c r="C5" s="2">
-        <v>3437</v>
+        <v>3668</v>
       </c>
       <c r="D5" s="2">
-        <v>1954</v>
+        <v>2101</v>
       </c>
       <c r="E5" s="2">
-        <v>5778</v>
+        <v>5799</v>
       </c>
       <c r="F5" s="2">
-        <v>1058</v>
+        <v>681</v>
       </c>
       <c r="G5" s="2">
-        <v>444</v>
+        <v>474</v>
       </c>
       <c r="H5" s="2">
-        <v>6628</v>
+        <v>6535</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B6" s="2">
-        <v>2609</v>
+        <v>2394</v>
       </c>
       <c r="C6" s="2">
-        <v>3265</v>
+        <v>3437</v>
       </c>
       <c r="D6" s="2">
-        <v>2106</v>
+        <v>1954</v>
       </c>
       <c r="E6" s="2">
-        <v>5743</v>
+        <v>5778</v>
       </c>
       <c r="F6" s="2">
-        <v>1172</v>
+        <v>1058</v>
       </c>
       <c r="G6" s="2">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="H6" s="2">
-        <v>6776</v>
+        <v>6628</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B7" s="2">
-        <v>2649</v>
+        <v>2609</v>
       </c>
       <c r="C7" s="2">
-        <v>3611</v>
+        <v>3265</v>
       </c>
       <c r="D7" s="2">
-        <v>2484</v>
+        <v>2106</v>
       </c>
       <c r="E7" s="2">
-        <v>5857</v>
+        <v>5743</v>
       </c>
       <c r="F7" s="2">
-        <v>1354</v>
+        <v>1172</v>
       </c>
       <c r="G7" s="2">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="H7" s="2">
-        <v>7031</v>
+        <v>6776</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" s="2">
-        <v>2249</v>
+        <v>2649</v>
       </c>
       <c r="C8" s="2">
-        <v>3660</v>
+        <v>3611</v>
       </c>
       <c r="D8" s="2">
-        <v>2506</v>
+        <v>2484</v>
       </c>
       <c r="E8" s="2">
-        <v>5796</v>
+        <v>5857</v>
       </c>
       <c r="F8" s="2">
-        <v>1055</v>
+        <v>1354</v>
       </c>
       <c r="G8" s="2">
-        <v>530</v>
+        <v>470</v>
       </c>
       <c r="H8" s="2">
-        <v>7053</v>
+        <v>7031</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B9" s="2">
-        <v>2224</v>
+        <v>2249</v>
       </c>
       <c r="C9" s="2">
-        <v>3236</v>
+        <v>3660</v>
       </c>
       <c r="D9" s="2">
-        <v>2085</v>
+        <v>2506</v>
       </c>
       <c r="E9" s="2">
-        <v>5543</v>
+        <v>5796</v>
       </c>
       <c r="F9" s="2">
-        <v>1234</v>
+        <v>1055</v>
       </c>
       <c r="G9" s="2">
-        <v>445</v>
+        <v>530</v>
       </c>
       <c r="H9" s="2">
-        <v>6928</v>
+        <v>7053</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="B10" s="2">
-        <v>2316</v>
+        <v>2224</v>
       </c>
       <c r="C10" s="2">
-        <v>3213</v>
+        <v>3236</v>
       </c>
       <c r="D10" s="2">
-        <v>2170</v>
+        <v>2085</v>
       </c>
       <c r="E10" s="2">
-        <v>5312</v>
+        <v>5543</v>
       </c>
       <c r="F10" s="2">
-        <v>800</v>
+        <v>1234</v>
       </c>
       <c r="G10" s="2">
-        <v>421</v>
+        <v>445</v>
       </c>
       <c r="H10" s="2">
-        <v>6957</v>
+        <v>6928</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B11" s="2">
-        <v>2615</v>
+        <v>2316</v>
       </c>
       <c r="C11" s="2">
-        <v>3852</v>
+        <v>3213</v>
       </c>
       <c r="D11" s="2">
-        <v>2035</v>
+        <v>2170</v>
       </c>
       <c r="E11" s="2">
-        <v>5315</v>
+        <v>5312</v>
       </c>
       <c r="F11" s="2">
-        <v>963</v>
+        <v>800</v>
       </c>
       <c r="G11" s="2">
-        <v>470</v>
+        <v>421</v>
       </c>
       <c r="H11" s="2">
-        <v>6774</v>
+        <v>6957</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B12" s="2">
-        <v>2864</v>
+        <v>2615</v>
       </c>
       <c r="C12" s="2">
-        <v>3531</v>
+        <v>3852</v>
       </c>
       <c r="D12" s="2">
-        <v>2661</v>
+        <v>2035</v>
       </c>
       <c r="E12" s="2">
-        <v>5505</v>
+        <v>5315</v>
       </c>
       <c r="F12" s="2">
-        <v>1176</v>
+        <v>963</v>
       </c>
       <c r="G12" s="2">
-        <v>494</v>
+        <v>470</v>
       </c>
       <c r="H12" s="2">
-        <v>6953</v>
+        <v>6774</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B13" s="2">
-        <v>2731</v>
+        <v>2864</v>
       </c>
       <c r="C13" s="2">
-        <v>3634</v>
+        <v>3531</v>
       </c>
       <c r="D13" s="2">
-        <v>2757</v>
+        <v>2661</v>
       </c>
       <c r="E13" s="2">
-        <v>5530</v>
+        <v>5505</v>
       </c>
       <c r="F13" s="2">
-        <v>1081</v>
+        <v>1176</v>
       </c>
       <c r="G13" s="2">
-        <v>569</v>
+        <v>494</v>
       </c>
       <c r="H13" s="2">
-        <v>7146</v>
+        <v>6953</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14" s="2">
-        <v>2607</v>
+        <v>2731</v>
       </c>
       <c r="C14" s="2">
-        <v>3547</v>
+        <v>3634</v>
       </c>
       <c r="D14" s="2">
-        <v>2478</v>
+        <v>2757</v>
       </c>
       <c r="E14" s="2">
-        <v>5645</v>
+        <v>5530</v>
       </c>
       <c r="F14" s="2">
-        <v>1467</v>
+        <v>1081</v>
       </c>
       <c r="G14" s="2">
-        <v>527</v>
+        <v>569</v>
       </c>
       <c r="H14" s="2">
-        <v>7281</v>
+        <v>7146</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2">
-        <v>2736</v>
+        <v>2607</v>
       </c>
       <c r="C15" s="2">
-        <v>3700</v>
+        <v>3547</v>
       </c>
       <c r="D15" s="2">
-        <v>2746</v>
+        <v>2478</v>
       </c>
       <c r="E15" s="2">
-        <v>5669</v>
+        <v>5645</v>
       </c>
       <c r="F15" s="2">
-        <v>1076</v>
+        <v>1467</v>
       </c>
       <c r="G15" s="2">
-        <v>554</v>
+        <v>527</v>
       </c>
       <c r="H15" s="2">
-        <v>7393</v>
+        <v>7281</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2">
-        <v>2786</v>
+        <v>2736</v>
       </c>
       <c r="C16" s="2">
-        <v>3593</v>
+        <v>3700</v>
       </c>
       <c r="D16" s="2">
-        <v>2260</v>
+        <v>2746</v>
       </c>
       <c r="E16" s="2">
-        <v>5635</v>
+        <v>5669</v>
       </c>
       <c r="F16" s="2">
-        <v>1726</v>
+        <v>1076</v>
       </c>
       <c r="G16" s="2">
-        <v>500</v>
+        <v>554</v>
       </c>
       <c r="H16" s="2">
-        <v>7351</v>
+        <v>7393</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B17" s="2">
-        <v>2685</v>
+        <v>2786</v>
       </c>
       <c r="C17" s="2">
-        <v>3708</v>
+        <v>3593</v>
       </c>
       <c r="D17" s="2">
-        <v>2585</v>
+        <v>2260</v>
       </c>
       <c r="E17" s="2">
-        <v>5383</v>
+        <v>5635</v>
       </c>
       <c r="F17" s="2">
-        <v>873</v>
+        <v>1726</v>
       </c>
       <c r="G17" s="2">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="H17" s="2">
-        <v>7253</v>
+        <v>7351</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="2">
+        <v>2685</v>
+      </c>
+      <c r="C18" s="2">
+        <v>3708</v>
+      </c>
+      <c r="D18" s="2">
+        <v>2585</v>
+      </c>
+      <c r="E18" s="2">
+        <v>5383</v>
+      </c>
+      <c r="F18" s="2">
+        <v>873</v>
+      </c>
+      <c r="G18" s="2">
+        <v>506</v>
+      </c>
+      <c r="H18" s="2">
+        <v>7253</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B19" s="2">
         <v>2608</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C19" s="2">
         <v>3688</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D19" s="2">
         <v>2264</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E19" s="2">
         <v>4891</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F19" s="2">
         <v>1056</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G19" s="2">
         <v>534</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H19" s="2">
         <v>6995</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="4">
-        <v>2967</v>
-      </c>
-      <c r="C19" s="4">
-        <v>3491</v>
-      </c>
-      <c r="D19" s="4">
-        <v>2065</v>
-      </c>
-      <c r="E19" s="4">
-        <v>4589</v>
-      </c>
-      <c r="F19" s="4">
-        <v>622</v>
-      </c>
-      <c r="G19" s="4">
-        <v>422</v>
-      </c>
-      <c r="H19" s="4">
-        <v>6980</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B20" s="4">
-        <v>2816</v>
+        <v>2967</v>
       </c>
       <c r="C20" s="4">
-        <v>3985</v>
+        <v>3491</v>
       </c>
       <c r="D20" s="4">
-        <v>2510</v>
+        <v>2065</v>
       </c>
       <c r="E20" s="4">
-        <v>4469</v>
+        <v>4589</v>
       </c>
       <c r="F20" s="4">
-        <v>607</v>
+        <v>622</v>
       </c>
       <c r="G20" s="4">
-        <v>492</v>
+        <v>422</v>
       </c>
       <c r="H20" s="4">
-        <v>7080</v>
+        <v>6980</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="3">
-        <v>2926</v>
-      </c>
-      <c r="C21" s="3">
-        <v>3707</v>
-      </c>
-      <c r="D21" s="3">
-        <v>2282</v>
-      </c>
-      <c r="E21" s="3">
-        <v>4120</v>
-      </c>
-      <c r="F21" s="3">
-        <v>514</v>
-      </c>
-      <c r="G21" s="3">
-        <v>436</v>
-      </c>
-      <c r="H21" s="3">
-        <v>6991</v>
+        <v>7</v>
+      </c>
+      <c r="B21" s="4">
+        <v>2816</v>
+      </c>
+      <c r="C21" s="4">
+        <v>3985</v>
+      </c>
+      <c r="D21" s="4">
+        <v>2510</v>
+      </c>
+      <c r="E21" s="4">
+        <v>4469</v>
+      </c>
+      <c r="F21" s="4">
+        <v>607</v>
+      </c>
+      <c r="G21" s="4">
+        <v>492</v>
+      </c>
+      <c r="H21" s="4">
+        <v>7080</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3">
+        <v>2926</v>
+      </c>
+      <c r="C22" s="3">
+        <v>3707</v>
+      </c>
+      <c r="D22" s="3">
+        <v>2282</v>
+      </c>
+      <c r="E22" s="3">
+        <v>4120</v>
+      </c>
+      <c r="F22" s="3">
+        <v>514</v>
+      </c>
+      <c r="G22" s="3">
+        <v>436</v>
+      </c>
+      <c r="H22" s="3">
+        <v>6991</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B23" s="3">
         <v>2832</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C23" s="3">
         <v>3754</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D23" s="3">
         <v>2239</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E23" s="3">
         <v>4312</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F23" s="3">
         <v>788</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G23" s="3">
         <v>453</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H23" s="3">
         <v>7106</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" s="2"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-    </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="2"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B25" s="3">
         <v>2709</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C25" s="3">
         <v>4123</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D25" s="3">
         <v>2658</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E25" s="3">
         <v>4265</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F25" s="3">
         <v>1965</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G25" s="3">
         <v>841</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H25" s="3">
         <v>6866</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" s="2"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-    </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="2"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B27" s="3">
         <v>2188</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C27" s="3">
         <v>3738</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D27" s="3">
         <v>1726</v>
       </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3">
+      <c r="E27" s="3"/>
+      <c r="F27" s="3">
         <v>872</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G27" s="3">
         <v>363</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H27" s="3">
         <v>6221</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-    </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B28" s="3">
-        <v>2218</v>
-      </c>
-      <c r="C28" s="3">
-        <v>3447</v>
-      </c>
-      <c r="D28" s="3">
-        <v>1597</v>
-      </c>
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
       <c r="E28" s="3"/>
-      <c r="F28" s="3">
-        <v>791</v>
-      </c>
-      <c r="G28" s="3">
-        <v>193</v>
-      </c>
-      <c r="H28" s="3">
-        <v>5922</v>
-      </c>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B29" s="3">
-        <v>2291</v>
+        <v>2218</v>
       </c>
       <c r="C29" s="3">
-        <v>3595</v>
+        <v>3447</v>
       </c>
       <c r="D29" s="3">
-        <v>2009</v>
+        <v>1597</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3">
-        <v>934</v>
+        <v>791</v>
       </c>
       <c r="G29" s="3">
-        <v>353</v>
+        <v>193</v>
       </c>
       <c r="H29" s="3">
-        <v>5846</v>
+        <v>5922</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B30" s="3">
-        <v>2296</v>
+        <v>2291</v>
       </c>
       <c r="C30" s="3">
-        <v>3708</v>
+        <v>3595</v>
       </c>
       <c r="D30" s="3">
-        <v>1780</v>
+        <v>2009</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3">
-        <v>742</v>
+        <v>934</v>
       </c>
       <c r="G30" s="3">
-        <v>377</v>
+        <v>353</v>
       </c>
       <c r="H30" s="3">
-        <v>5952</v>
+        <v>5846</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B31" s="3">
-        <v>2373</v>
+        <v>2296</v>
       </c>
       <c r="C31" s="3">
-        <v>3515</v>
+        <v>3708</v>
       </c>
       <c r="D31" s="3">
-        <v>1755</v>
+        <v>1780</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3">
-        <v>818</v>
+        <v>742</v>
       </c>
       <c r="G31" s="3">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="H31" s="3">
-        <v>5881</v>
+        <v>5952</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B32" s="3">
-        <v>2456</v>
+        <v>2373</v>
       </c>
       <c r="C32" s="3">
-        <v>3345</v>
+        <v>3515</v>
       </c>
       <c r="D32" s="3">
-        <v>1706</v>
+        <v>1755</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3">
-        <v>719</v>
+        <v>818</v>
       </c>
       <c r="G32" s="3">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="H32" s="3">
-        <v>5982</v>
+        <v>5881</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B33" s="3">
-        <v>2382</v>
+        <v>2456</v>
       </c>
       <c r="C33" s="3">
-        <v>3423</v>
+        <v>3345</v>
       </c>
       <c r="D33" s="3">
-        <v>2053</v>
+        <v>1706</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3">
-        <v>755</v>
+        <v>719</v>
       </c>
       <c r="G33" s="3">
-        <v>390</v>
+        <v>346</v>
       </c>
       <c r="H33" s="3">
-        <v>6019</v>
+        <v>5982</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B34" s="3">
-        <v>2630</v>
+        <v>2382</v>
       </c>
       <c r="C34" s="3">
-        <v>3390</v>
+        <v>3423</v>
       </c>
       <c r="D34" s="3">
-        <v>1911</v>
+        <v>2053</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3">
-        <v>728</v>
+        <v>755</v>
       </c>
       <c r="G34" s="3">
-        <v>411</v>
+        <v>390</v>
       </c>
       <c r="H34" s="3">
-        <v>6293</v>
+        <v>6019</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B35" s="3">
-        <v>2440</v>
+        <v>2630</v>
       </c>
       <c r="C35" s="3">
-        <v>3379</v>
+        <v>3390</v>
       </c>
       <c r="D35" s="3">
-        <v>2036</v>
+        <v>1911</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3">
-        <v>793</v>
+        <v>728</v>
       </c>
       <c r="G35" s="3">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="H35" s="3">
-        <v>6359</v>
+        <v>6293</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B36" s="3">
-        <v>2329</v>
+        <v>2440</v>
       </c>
       <c r="C36" s="3">
-        <v>3333</v>
+        <v>3379</v>
       </c>
       <c r="D36" s="3">
-        <v>2011</v>
+        <v>2036</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3">
-        <v>672</v>
+        <v>793</v>
       </c>
       <c r="G36" s="3">
-        <v>486</v>
+        <v>416</v>
       </c>
       <c r="H36" s="3">
-        <v>6237</v>
+        <v>6359</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" s="2" t="s">
-        <v>9</v>
+      <c r="A37" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="B37" s="3">
-        <v>2288</v>
+        <v>2329</v>
       </c>
       <c r="C37" s="3">
-        <v>3275</v>
+        <v>3333</v>
       </c>
       <c r="D37" s="3">
-        <v>1979</v>
+        <v>2011</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3">
-        <v>870</v>
+        <v>672</v>
       </c>
       <c r="G37" s="3">
-        <v>445</v>
+        <v>486</v>
       </c>
       <c r="H37" s="3">
-        <v>6440</v>
+        <v>6237</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B38" s="4">
-        <v>2256</v>
-      </c>
-      <c r="C38" s="4">
-        <v>3440</v>
-      </c>
-      <c r="D38" s="4">
-        <v>2083</v>
-      </c>
-      <c r="E38" s="2"/>
-      <c r="F38" s="4">
-        <v>707</v>
-      </c>
-      <c r="G38" s="4">
-        <v>470</v>
-      </c>
-      <c r="H38" s="4">
-        <v>6526</v>
+        <v>9</v>
+      </c>
+      <c r="B38" s="3">
+        <v>2288</v>
+      </c>
+      <c r="C38" s="3">
+        <v>3275</v>
+      </c>
+      <c r="D38" s="3">
+        <v>1979</v>
+      </c>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3">
+        <v>870</v>
+      </c>
+      <c r="G38" s="3">
+        <v>445</v>
+      </c>
+      <c r="H38" s="3">
+        <v>6440</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="B39" s="4">
-        <v>2279</v>
+        <v>2256</v>
       </c>
       <c r="C39" s="4">
-        <v>3257</v>
+        <v>3440</v>
       </c>
       <c r="D39" s="4">
-        <v>1713</v>
+        <v>2083</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="4">
-        <v>691</v>
+        <v>707</v>
       </c>
       <c r="G39" s="4">
-        <v>488</v>
+        <v>470</v>
       </c>
       <c r="H39" s="4">
-        <v>6618</v>
+        <v>6526</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B40" s="4">
-        <v>2265</v>
+        <v>2279</v>
       </c>
       <c r="C40" s="4">
-        <v>3145</v>
+        <v>3257</v>
       </c>
       <c r="D40" s="4">
-        <v>1874</v>
+        <v>1713</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="4">
+        <v>691</v>
+      </c>
+      <c r="G40" s="4">
+        <v>488</v>
+      </c>
+      <c r="H40" s="4">
+        <v>6618</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A41" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B41" s="4">
+        <v>2265</v>
+      </c>
+      <c r="C41" s="4">
+        <v>3145</v>
+      </c>
+      <c r="D41" s="4">
+        <v>1874</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" s="4">
         <v>781</v>
       </c>
-      <c r="G40" s="4">
+      <c r="G41" s="4">
         <v>497</v>
       </c>
-      <c r="H40" s="4">
+      <c r="H41" s="4">
         <v>6520</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A41" s="2"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-    </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="2"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A43" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B43" s="4">
         <v>2505</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C43" s="4">
         <v>3736</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D43" s="4">
         <v>2075</v>
       </c>
-      <c r="E42" s="2"/>
-      <c r="F42" s="4">
+      <c r="E43" s="2"/>
+      <c r="F43" s="4">
         <v>666</v>
       </c>
-      <c r="G42" s="4">
+      <c r="G43" s="4">
         <v>432</v>
       </c>
-      <c r="H42" s="4">
+      <c r="H43" s="4">
         <v>6427</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A43" s="2"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-    </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="2"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A45" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B45" s="4">
         <v>2484</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C45" s="4">
         <v>3886</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D45" s="4">
         <v>2051</v>
       </c>
-      <c r="E44" s="2"/>
-      <c r="F44" s="4">
+      <c r="E45" s="2"/>
+      <c r="F45" s="4">
         <v>1126</v>
       </c>
-      <c r="G44" s="4">
+      <c r="G45" s="4">
         <v>394</v>
       </c>
-      <c r="H44" s="4">
+      <c r="H45" s="4">
         <v>6136</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A45" s="2"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-    </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A46" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B46" s="4">
-        <v>2135</v>
-      </c>
-      <c r="C46" s="4">
-        <v>3364</v>
-      </c>
-      <c r="D46" s="4">
-        <v>1740</v>
-      </c>
+      <c r="A46" s="2"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
       <c r="E46" s="2"/>
-      <c r="F46" s="4">
-        <v>1066</v>
-      </c>
-      <c r="G46" s="4">
-        <v>327</v>
-      </c>
-      <c r="H46" s="4">
-        <v>5980</v>
-      </c>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B47" s="4">
-        <v>2666</v>
+        <v>2135</v>
       </c>
       <c r="C47" s="4">
-        <v>3286</v>
+        <v>3364</v>
       </c>
       <c r="D47" s="4">
-        <v>2008</v>
+        <v>1740</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="4">
-        <v>784</v>
+        <v>1066</v>
       </c>
       <c r="G47" s="4">
-        <v>402</v>
+        <v>327</v>
       </c>
       <c r="H47" s="4">
-        <v>6535</v>
+        <v>5980</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B48" s="4">
-        <v>2461</v>
-      </c>
-      <c r="C48" s="3">
-        <v>3668</v>
+        <v>2666</v>
+      </c>
+      <c r="C48" s="4">
+        <v>3286</v>
       </c>
       <c r="D48" s="4">
-        <v>2303</v>
+        <v>2008</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="4">
-        <v>1239</v>
+        <v>784</v>
       </c>
       <c r="G48" s="4">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="H48" s="4">
-        <v>6732</v>
+        <v>6535</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B49" s="4">
-        <v>2576</v>
-      </c>
-      <c r="C49" s="4">
-        <v>4137</v>
+        <v>2461</v>
+      </c>
+      <c r="C49" s="3">
+        <v>3668</v>
       </c>
       <c r="D49" s="4">
-        <v>2049</v>
+        <v>2303</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="4">
+        <v>1239</v>
+      </c>
+      <c r="G49" s="4">
+        <v>396</v>
+      </c>
+      <c r="H49" s="4">
+        <v>6732</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A50" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B50" s="4">
+        <v>2576</v>
+      </c>
+      <c r="C50" s="4">
+        <v>4137</v>
+      </c>
+      <c r="D50" s="4">
+        <v>2049</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" s="4">
         <v>1473</v>
       </c>
-      <c r="G49" s="4">
+      <c r="G50" s="4">
         <v>335</v>
       </c>
-      <c r="H49" s="4">
+      <c r="H50" s="4">
         <v>6306</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A50" s="2"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-    </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A51" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B51" s="4">
-        <v>2273</v>
-      </c>
-      <c r="C51" s="4">
-        <v>3683</v>
-      </c>
-      <c r="D51" s="4">
-        <v>1674</v>
-      </c>
+      <c r="A51" s="2"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
       <c r="E51" s="2"/>
-      <c r="F51" s="4">
-        <v>1138</v>
-      </c>
-      <c r="G51" s="4">
-        <v>293</v>
-      </c>
-      <c r="H51" s="4">
-        <v>6128</v>
-      </c>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B52" s="4">
-        <v>2563</v>
+        <v>2273</v>
       </c>
       <c r="C52" s="4">
-        <v>3081</v>
+        <v>3683</v>
       </c>
       <c r="D52" s="4">
-        <v>2051</v>
+        <v>1674</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="4">
-        <v>776</v>
+        <v>1138</v>
       </c>
       <c r="G52" s="4">
-        <v>475</v>
+        <v>293</v>
       </c>
       <c r="H52" s="4">
-        <v>6557</v>
+        <v>6128</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B53" s="4">
-        <v>2422</v>
+        <v>2563</v>
       </c>
       <c r="C53" s="4">
-        <v>3313</v>
+        <v>3081</v>
       </c>
       <c r="D53" s="4">
-        <v>2370</v>
+        <v>2051</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="4">
-        <v>311</v>
+        <v>776</v>
       </c>
       <c r="G53" s="4">
-        <v>499</v>
+        <v>475</v>
       </c>
       <c r="H53" s="4">
-        <v>6730</v>
+        <v>6557</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B54" s="4">
-        <v>2696</v>
+        <v>2422</v>
       </c>
       <c r="C54" s="4">
-        <v>4253</v>
+        <v>3313</v>
       </c>
       <c r="D54" s="4">
-        <v>2987</v>
+        <v>2370</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="4">
+        <v>311</v>
+      </c>
+      <c r="G54" s="4">
+        <v>499</v>
+      </c>
+      <c r="H54" s="4">
+        <v>6730</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A55" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B55" s="4">
+        <v>2696</v>
+      </c>
+      <c r="C55" s="4">
+        <v>4253</v>
+      </c>
+      <c r="D55" s="4">
+        <v>2987</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" s="4">
         <v>1707</v>
       </c>
-      <c r="G54" s="4">
+      <c r="G55" s="4">
         <v>442</v>
       </c>
-      <c r="H54" s="4">
+      <c r="H55" s="4">
         <v>6878</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A55" s="2"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-    </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A56" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="A56" s="2"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
@@ -1906,20 +1923,20 @@
       <c r="H56" s="4"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A57" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
+      <c r="A57" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -1931,7 +1948,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -1941,6 +1958,18 @@
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
     </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A60" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/pathologiesRespiFrance.xlsx
+++ b/pathologiesRespiFrance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christophe Godlewski\MEGAsync\GitHub\covid19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9DC0B8B-0846-4994-B757-D9B725E93E98}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B0EC524-964F-4A9F-9C84-39E1EB1D392D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C7A5E7A9-40F6-48C7-AF9F-3089D8153C5F}"/>
+    <workbookView xWindow="28690" yWindow="-110" windowWidth="29020" windowHeight="15820" xr2:uid="{C7A5E7A9-40F6-48C7-AF9F-3089D8153C5F}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -625,7 +625,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>

--- a/pathologiesRespiFrance.xlsx
+++ b/pathologiesRespiFrance.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christophe Godlewski\MEGAsync\GitHub\covid19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B0EC524-964F-4A9F-9C84-39E1EB1D392D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8968A6AC-2E42-4291-9FEB-BBCE8FA9A93A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28690" yWindow="-110" windowWidth="29020" windowHeight="15820" xr2:uid="{C7A5E7A9-40F6-48C7-AF9F-3089D8153C5F}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>2020-S43</t>
   </si>
@@ -236,6 +236,9 @@
   </si>
   <si>
     <t>2021-S08</t>
+  </si>
+  <si>
+    <t>2021-S09</t>
   </si>
 </sst>
 </file>
@@ -621,7 +624,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74130894-499C-4806-A027-6CF74BEEC805}">
-  <dimension ref="A1:H60"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -670,1262 +673,1276 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B2" s="2">
-        <v>2470</v>
+        <v>2786</v>
       </c>
       <c r="C2" s="2">
-        <v>3410</v>
+        <v>3906</v>
       </c>
       <c r="D2" s="2">
-        <v>1941</v>
+        <v>1731</v>
       </c>
       <c r="E2" s="2">
-        <v>5610</v>
+        <v>5788</v>
       </c>
       <c r="F2" s="2">
-        <v>880</v>
+        <v>579</v>
       </c>
       <c r="G2" s="2">
-        <v>396</v>
+        <v>481</v>
       </c>
       <c r="H2" s="2">
-        <v>6393</v>
+        <v>6744</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B3" s="2">
-        <v>2639</v>
+        <v>2470</v>
       </c>
       <c r="C3" s="2">
-        <v>3578</v>
+        <v>3410</v>
       </c>
       <c r="D3" s="2">
-        <v>1707</v>
+        <v>1941</v>
       </c>
       <c r="E3" s="2">
-        <v>5807</v>
+        <v>5610</v>
       </c>
       <c r="F3" s="2">
-        <v>810</v>
+        <v>880</v>
       </c>
       <c r="G3" s="2">
-        <v>449</v>
+        <v>396</v>
       </c>
       <c r="H3" s="2">
-        <v>6434</v>
+        <v>6393</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B4" s="2">
-        <v>2277</v>
+        <v>2639</v>
       </c>
       <c r="C4" s="2">
-        <v>3348</v>
+        <v>3578</v>
       </c>
       <c r="D4" s="2">
-        <v>1761</v>
+        <v>1707</v>
       </c>
       <c r="E4" s="2">
-        <v>5822</v>
+        <v>5807</v>
       </c>
       <c r="F4" s="2">
-        <v>860</v>
+        <v>810</v>
       </c>
       <c r="G4" s="2">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H4" s="2">
-        <v>6613</v>
+        <v>6434</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B5" s="2">
-        <v>2570</v>
+        <v>2277</v>
       </c>
       <c r="C5" s="2">
-        <v>3668</v>
+        <v>3348</v>
       </c>
       <c r="D5" s="2">
-        <v>2101</v>
+        <v>1761</v>
       </c>
       <c r="E5" s="2">
-        <v>5799</v>
+        <v>5822</v>
       </c>
       <c r="F5" s="2">
-        <v>681</v>
+        <v>860</v>
       </c>
       <c r="G5" s="2">
-        <v>474</v>
+        <v>451</v>
       </c>
       <c r="H5" s="2">
-        <v>6535</v>
+        <v>6613</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B6" s="2">
-        <v>2394</v>
+        <v>2570</v>
       </c>
       <c r="C6" s="2">
-        <v>3437</v>
+        <v>3668</v>
       </c>
       <c r="D6" s="2">
-        <v>1954</v>
+        <v>2101</v>
       </c>
       <c r="E6" s="2">
-        <v>5778</v>
+        <v>5799</v>
       </c>
       <c r="F6" s="2">
-        <v>1058</v>
+        <v>681</v>
       </c>
       <c r="G6" s="2">
-        <v>444</v>
+        <v>474</v>
       </c>
       <c r="H6" s="2">
-        <v>6628</v>
+        <v>6535</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B7" s="2">
-        <v>2609</v>
+        <v>2394</v>
       </c>
       <c r="C7" s="2">
-        <v>3265</v>
+        <v>3437</v>
       </c>
       <c r="D7" s="2">
-        <v>2106</v>
+        <v>1954</v>
       </c>
       <c r="E7" s="2">
-        <v>5743</v>
+        <v>5778</v>
       </c>
       <c r="F7" s="2">
-        <v>1172</v>
+        <v>1058</v>
       </c>
       <c r="G7" s="2">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="H7" s="2">
-        <v>6776</v>
+        <v>6628</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B8" s="2">
-        <v>2649</v>
+        <v>2609</v>
       </c>
       <c r="C8" s="2">
-        <v>3611</v>
+        <v>3265</v>
       </c>
       <c r="D8" s="2">
-        <v>2484</v>
+        <v>2106</v>
       </c>
       <c r="E8" s="2">
-        <v>5857</v>
+        <v>5743</v>
       </c>
       <c r="F8" s="2">
-        <v>1354</v>
+        <v>1172</v>
       </c>
       <c r="G8" s="2">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="H8" s="2">
-        <v>7031</v>
+        <v>6776</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B9" s="2">
-        <v>2249</v>
+        <v>2649</v>
       </c>
       <c r="C9" s="2">
-        <v>3660</v>
+        <v>3611</v>
       </c>
       <c r="D9" s="2">
-        <v>2506</v>
+        <v>2484</v>
       </c>
       <c r="E9" s="2">
-        <v>5796</v>
+        <v>5857</v>
       </c>
       <c r="F9" s="2">
-        <v>1055</v>
+        <v>1354</v>
       </c>
       <c r="G9" s="2">
-        <v>530</v>
+        <v>470</v>
       </c>
       <c r="H9" s="2">
-        <v>7053</v>
+        <v>7031</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B10" s="2">
-        <v>2224</v>
+        <v>2249</v>
       </c>
       <c r="C10" s="2">
-        <v>3236</v>
+        <v>3660</v>
       </c>
       <c r="D10" s="2">
-        <v>2085</v>
+        <v>2506</v>
       </c>
       <c r="E10" s="2">
-        <v>5543</v>
+        <v>5796</v>
       </c>
       <c r="F10" s="2">
-        <v>1234</v>
+        <v>1055</v>
       </c>
       <c r="G10" s="2">
-        <v>445</v>
+        <v>530</v>
       </c>
       <c r="H10" s="2">
-        <v>6928</v>
+        <v>7053</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="B11" s="2">
-        <v>2316</v>
+        <v>2224</v>
       </c>
       <c r="C11" s="2">
-        <v>3213</v>
+        <v>3236</v>
       </c>
       <c r="D11" s="2">
-        <v>2170</v>
+        <v>2085</v>
       </c>
       <c r="E11" s="2">
-        <v>5312</v>
+        <v>5543</v>
       </c>
       <c r="F11" s="2">
-        <v>800</v>
+        <v>1234</v>
       </c>
       <c r="G11" s="2">
-        <v>421</v>
+        <v>445</v>
       </c>
       <c r="H11" s="2">
-        <v>6957</v>
+        <v>6928</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B12" s="2">
-        <v>2615</v>
+        <v>2316</v>
       </c>
       <c r="C12" s="2">
-        <v>3852</v>
+        <v>3213</v>
       </c>
       <c r="D12" s="2">
-        <v>2035</v>
+        <v>2170</v>
       </c>
       <c r="E12" s="2">
-        <v>5315</v>
+        <v>5312</v>
       </c>
       <c r="F12" s="2">
-        <v>963</v>
+        <v>800</v>
       </c>
       <c r="G12" s="2">
-        <v>470</v>
+        <v>421</v>
       </c>
       <c r="H12" s="2">
-        <v>6774</v>
+        <v>6957</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B13" s="2">
-        <v>2864</v>
+        <v>2615</v>
       </c>
       <c r="C13" s="2">
-        <v>3531</v>
+        <v>3852</v>
       </c>
       <c r="D13" s="2">
-        <v>2661</v>
+        <v>2035</v>
       </c>
       <c r="E13" s="2">
-        <v>5505</v>
+        <v>5315</v>
       </c>
       <c r="F13" s="2">
-        <v>1176</v>
+        <v>963</v>
       </c>
       <c r="G13" s="2">
-        <v>494</v>
+        <v>470</v>
       </c>
       <c r="H13" s="2">
-        <v>6953</v>
+        <v>6774</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14" s="2">
-        <v>2731</v>
+        <v>2864</v>
       </c>
       <c r="C14" s="2">
-        <v>3634</v>
+        <v>3531</v>
       </c>
       <c r="D14" s="2">
-        <v>2757</v>
+        <v>2661</v>
       </c>
       <c r="E14" s="2">
-        <v>5530</v>
+        <v>5505</v>
       </c>
       <c r="F14" s="2">
-        <v>1081</v>
+        <v>1176</v>
       </c>
       <c r="G14" s="2">
-        <v>569</v>
+        <v>494</v>
       </c>
       <c r="H14" s="2">
-        <v>7146</v>
+        <v>6953</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" s="2">
-        <v>2607</v>
+        <v>2731</v>
       </c>
       <c r="C15" s="2">
-        <v>3547</v>
+        <v>3634</v>
       </c>
       <c r="D15" s="2">
-        <v>2478</v>
+        <v>2757</v>
       </c>
       <c r="E15" s="2">
-        <v>5645</v>
+        <v>5530</v>
       </c>
       <c r="F15" s="2">
-        <v>1467</v>
+        <v>1081</v>
       </c>
       <c r="G15" s="2">
-        <v>527</v>
+        <v>569</v>
       </c>
       <c r="H15" s="2">
-        <v>7281</v>
+        <v>7146</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2">
-        <v>2736</v>
+        <v>2607</v>
       </c>
       <c r="C16" s="2">
-        <v>3700</v>
+        <v>3547</v>
       </c>
       <c r="D16" s="2">
-        <v>2746</v>
+        <v>2478</v>
       </c>
       <c r="E16" s="2">
-        <v>5669</v>
+        <v>5645</v>
       </c>
       <c r="F16" s="2">
-        <v>1076</v>
+        <v>1467</v>
       </c>
       <c r="G16" s="2">
-        <v>554</v>
+        <v>527</v>
       </c>
       <c r="H16" s="2">
-        <v>7393</v>
+        <v>7281</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" s="2">
-        <v>2786</v>
+        <v>2736</v>
       </c>
       <c r="C17" s="2">
-        <v>3593</v>
+        <v>3700</v>
       </c>
       <c r="D17" s="2">
-        <v>2260</v>
+        <v>2746</v>
       </c>
       <c r="E17" s="2">
-        <v>5635</v>
+        <v>5669</v>
       </c>
       <c r="F17" s="2">
-        <v>1726</v>
+        <v>1076</v>
       </c>
       <c r="G17" s="2">
-        <v>500</v>
+        <v>554</v>
       </c>
       <c r="H17" s="2">
-        <v>7351</v>
+        <v>7393</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B18" s="2">
-        <v>2685</v>
+        <v>2786</v>
       </c>
       <c r="C18" s="2">
-        <v>3708</v>
+        <v>3593</v>
       </c>
       <c r="D18" s="2">
-        <v>2585</v>
+        <v>2260</v>
       </c>
       <c r="E18" s="2">
-        <v>5383</v>
+        <v>5635</v>
       </c>
       <c r="F18" s="2">
-        <v>873</v>
+        <v>1726</v>
       </c>
       <c r="G18" s="2">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="H18" s="2">
-        <v>7253</v>
+        <v>7351</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="2">
+        <v>2685</v>
+      </c>
+      <c r="C19" s="2">
+        <v>3708</v>
+      </c>
+      <c r="D19" s="2">
+        <v>2585</v>
+      </c>
+      <c r="E19" s="2">
+        <v>5383</v>
+      </c>
+      <c r="F19" s="2">
+        <v>873</v>
+      </c>
+      <c r="G19" s="2">
+        <v>506</v>
+      </c>
+      <c r="H19" s="2">
+        <v>7253</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B20" s="2">
         <v>2608</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C20" s="2">
         <v>3688</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D20" s="2">
         <v>2264</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E20" s="2">
         <v>4891</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F20" s="2">
         <v>1056</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G20" s="2">
         <v>534</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H20" s="2">
         <v>6995</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="4">
-        <v>2967</v>
-      </c>
-      <c r="C20" s="4">
-        <v>3491</v>
-      </c>
-      <c r="D20" s="4">
-        <v>2065</v>
-      </c>
-      <c r="E20" s="4">
-        <v>4589</v>
-      </c>
-      <c r="F20" s="4">
-        <v>622</v>
-      </c>
-      <c r="G20" s="4">
-        <v>422</v>
-      </c>
-      <c r="H20" s="4">
-        <v>6980</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B21" s="4">
-        <v>2816</v>
+        <v>2967</v>
       </c>
       <c r="C21" s="4">
-        <v>3985</v>
+        <v>3491</v>
       </c>
       <c r="D21" s="4">
-        <v>2510</v>
+        <v>2065</v>
       </c>
       <c r="E21" s="4">
-        <v>4469</v>
+        <v>4589</v>
       </c>
       <c r="F21" s="4">
-        <v>607</v>
+        <v>622</v>
       </c>
       <c r="G21" s="4">
-        <v>492</v>
+        <v>422</v>
       </c>
       <c r="H21" s="4">
-        <v>7080</v>
+        <v>6980</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="3">
-        <v>2926</v>
-      </c>
-      <c r="C22" s="3">
-        <v>3707</v>
-      </c>
-      <c r="D22" s="3">
-        <v>2282</v>
-      </c>
-      <c r="E22" s="3">
-        <v>4120</v>
-      </c>
-      <c r="F22" s="3">
-        <v>514</v>
-      </c>
-      <c r="G22" s="3">
-        <v>436</v>
-      </c>
-      <c r="H22" s="3">
-        <v>6991</v>
+        <v>7</v>
+      </c>
+      <c r="B22" s="4">
+        <v>2816</v>
+      </c>
+      <c r="C22" s="4">
+        <v>3985</v>
+      </c>
+      <c r="D22" s="4">
+        <v>2510</v>
+      </c>
+      <c r="E22" s="4">
+        <v>4469</v>
+      </c>
+      <c r="F22" s="4">
+        <v>607</v>
+      </c>
+      <c r="G22" s="4">
+        <v>492</v>
+      </c>
+      <c r="H22" s="4">
+        <v>7080</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="3">
+        <v>2926</v>
+      </c>
+      <c r="C23" s="3">
+        <v>3707</v>
+      </c>
+      <c r="D23" s="3">
+        <v>2282</v>
+      </c>
+      <c r="E23" s="3">
+        <v>4120</v>
+      </c>
+      <c r="F23" s="3">
+        <v>514</v>
+      </c>
+      <c r="G23" s="3">
+        <v>436</v>
+      </c>
+      <c r="H23" s="3">
+        <v>6991</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B24" s="3">
         <v>2832</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C24" s="3">
         <v>3754</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D24" s="3">
         <v>2239</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E24" s="3">
         <v>4312</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F24" s="3">
         <v>788</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G24" s="3">
         <v>453</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H24" s="3">
         <v>7106</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" s="2"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-    </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="2"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B26" s="3">
         <v>2709</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C26" s="3">
         <v>4123</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D26" s="3">
         <v>2658</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E26" s="3">
         <v>4265</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F26" s="3">
         <v>1965</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G26" s="3">
         <v>841</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H26" s="3">
         <v>6866</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" s="2"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-    </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="2"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B28" s="3">
         <v>2188</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C28" s="3">
         <v>3738</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D28" s="3">
         <v>1726</v>
       </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3">
+      <c r="E28" s="3"/>
+      <c r="F28" s="3">
         <v>872</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G28" s="3">
         <v>363</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H28" s="3">
         <v>6221</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-    </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29" s="3">
-        <v>2218</v>
-      </c>
-      <c r="C29" s="3">
-        <v>3447</v>
-      </c>
-      <c r="D29" s="3">
-        <v>1597</v>
-      </c>
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
       <c r="E29" s="3"/>
-      <c r="F29" s="3">
-        <v>791</v>
-      </c>
-      <c r="G29" s="3">
-        <v>193</v>
-      </c>
-      <c r="H29" s="3">
-        <v>5922</v>
-      </c>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B30" s="3">
-        <v>2291</v>
+        <v>2218</v>
       </c>
       <c r="C30" s="3">
-        <v>3595</v>
+        <v>3447</v>
       </c>
       <c r="D30" s="3">
-        <v>2009</v>
+        <v>1597</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3">
-        <v>934</v>
+        <v>791</v>
       </c>
       <c r="G30" s="3">
-        <v>353</v>
+        <v>193</v>
       </c>
       <c r="H30" s="3">
-        <v>5846</v>
+        <v>5922</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B31" s="3">
-        <v>2296</v>
+        <v>2291</v>
       </c>
       <c r="C31" s="3">
-        <v>3708</v>
+        <v>3595</v>
       </c>
       <c r="D31" s="3">
-        <v>1780</v>
+        <v>2009</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3">
-        <v>742</v>
+        <v>934</v>
       </c>
       <c r="G31" s="3">
-        <v>377</v>
+        <v>353</v>
       </c>
       <c r="H31" s="3">
-        <v>5952</v>
+        <v>5846</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B32" s="3">
-        <v>2373</v>
+        <v>2296</v>
       </c>
       <c r="C32" s="3">
-        <v>3515</v>
+        <v>3708</v>
       </c>
       <c r="D32" s="3">
-        <v>1755</v>
+        <v>1780</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3">
-        <v>818</v>
+        <v>742</v>
       </c>
       <c r="G32" s="3">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="H32" s="3">
-        <v>5881</v>
+        <v>5952</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B33" s="3">
-        <v>2456</v>
+        <v>2373</v>
       </c>
       <c r="C33" s="3">
-        <v>3345</v>
+        <v>3515</v>
       </c>
       <c r="D33" s="3">
-        <v>1706</v>
+        <v>1755</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3">
-        <v>719</v>
+        <v>818</v>
       </c>
       <c r="G33" s="3">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="H33" s="3">
-        <v>5982</v>
+        <v>5881</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B34" s="3">
-        <v>2382</v>
+        <v>2456</v>
       </c>
       <c r="C34" s="3">
-        <v>3423</v>
+        <v>3345</v>
       </c>
       <c r="D34" s="3">
-        <v>2053</v>
+        <v>1706</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3">
-        <v>755</v>
+        <v>719</v>
       </c>
       <c r="G34" s="3">
-        <v>390</v>
+        <v>346</v>
       </c>
       <c r="H34" s="3">
-        <v>6019</v>
+        <v>5982</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B35" s="3">
-        <v>2630</v>
+        <v>2382</v>
       </c>
       <c r="C35" s="3">
-        <v>3390</v>
+        <v>3423</v>
       </c>
       <c r="D35" s="3">
-        <v>1911</v>
+        <v>2053</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3">
-        <v>728</v>
+        <v>755</v>
       </c>
       <c r="G35" s="3">
-        <v>411</v>
+        <v>390</v>
       </c>
       <c r="H35" s="3">
-        <v>6293</v>
+        <v>6019</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B36" s="3">
-        <v>2440</v>
+        <v>2630</v>
       </c>
       <c r="C36" s="3">
-        <v>3379</v>
+        <v>3390</v>
       </c>
       <c r="D36" s="3">
-        <v>2036</v>
+        <v>1911</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3">
-        <v>793</v>
+        <v>728</v>
       </c>
       <c r="G36" s="3">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="H36" s="3">
-        <v>6359</v>
+        <v>6293</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B37" s="3">
-        <v>2329</v>
+        <v>2440</v>
       </c>
       <c r="C37" s="3">
-        <v>3333</v>
+        <v>3379</v>
       </c>
       <c r="D37" s="3">
-        <v>2011</v>
+        <v>2036</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3">
-        <v>672</v>
+        <v>793</v>
       </c>
       <c r="G37" s="3">
-        <v>486</v>
+        <v>416</v>
       </c>
       <c r="H37" s="3">
-        <v>6237</v>
+        <v>6359</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A38" s="2" t="s">
-        <v>9</v>
+      <c r="A38" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="B38" s="3">
-        <v>2288</v>
+        <v>2329</v>
       </c>
       <c r="C38" s="3">
-        <v>3275</v>
+        <v>3333</v>
       </c>
       <c r="D38" s="3">
-        <v>1979</v>
+        <v>2011</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3">
-        <v>870</v>
+        <v>672</v>
       </c>
       <c r="G38" s="3">
-        <v>445</v>
+        <v>486</v>
       </c>
       <c r="H38" s="3">
-        <v>6440</v>
+        <v>6237</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B39" s="4">
-        <v>2256</v>
-      </c>
-      <c r="C39" s="4">
-        <v>3440</v>
-      </c>
-      <c r="D39" s="4">
-        <v>2083</v>
-      </c>
-      <c r="E39" s="2"/>
-      <c r="F39" s="4">
-        <v>707</v>
-      </c>
-      <c r="G39" s="4">
-        <v>470</v>
-      </c>
-      <c r="H39" s="4">
-        <v>6526</v>
+        <v>9</v>
+      </c>
+      <c r="B39" s="3">
+        <v>2288</v>
+      </c>
+      <c r="C39" s="3">
+        <v>3275</v>
+      </c>
+      <c r="D39" s="3">
+        <v>1979</v>
+      </c>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3">
+        <v>870</v>
+      </c>
+      <c r="G39" s="3">
+        <v>445</v>
+      </c>
+      <c r="H39" s="3">
+        <v>6440</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="B40" s="4">
-        <v>2279</v>
+        <v>2256</v>
       </c>
       <c r="C40" s="4">
-        <v>3257</v>
+        <v>3440</v>
       </c>
       <c r="D40" s="4">
-        <v>1713</v>
+        <v>2083</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="4">
-        <v>691</v>
+        <v>707</v>
       </c>
       <c r="G40" s="4">
-        <v>488</v>
+        <v>470</v>
       </c>
       <c r="H40" s="4">
-        <v>6618</v>
+        <v>6526</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B41" s="4">
-        <v>2265</v>
+        <v>2279</v>
       </c>
       <c r="C41" s="4">
-        <v>3145</v>
+        <v>3257</v>
       </c>
       <c r="D41" s="4">
-        <v>1874</v>
+        <v>1713</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="4">
+        <v>691</v>
+      </c>
+      <c r="G41" s="4">
+        <v>488</v>
+      </c>
+      <c r="H41" s="4">
+        <v>6618</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A42" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B42" s="4">
+        <v>2265</v>
+      </c>
+      <c r="C42" s="4">
+        <v>3145</v>
+      </c>
+      <c r="D42" s="4">
+        <v>1874</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" s="4">
         <v>781</v>
       </c>
-      <c r="G41" s="4">
+      <c r="G42" s="4">
         <v>497</v>
       </c>
-      <c r="H41" s="4">
+      <c r="H42" s="4">
         <v>6520</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A42" s="2"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-    </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="2"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B44" s="4">
         <v>2505</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C44" s="4">
         <v>3736</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D44" s="4">
         <v>2075</v>
       </c>
-      <c r="E43" s="2"/>
-      <c r="F43" s="4">
+      <c r="E44" s="2"/>
+      <c r="F44" s="4">
         <v>666</v>
       </c>
-      <c r="G43" s="4">
+      <c r="G44" s="4">
         <v>432</v>
       </c>
-      <c r="H43" s="4">
+      <c r="H44" s="4">
         <v>6427</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A44" s="2"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-    </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="2"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A46" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B46" s="4">
         <v>2484</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C46" s="4">
         <v>3886</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D46" s="4">
         <v>2051</v>
       </c>
-      <c r="E45" s="2"/>
-      <c r="F45" s="4">
+      <c r="E46" s="2"/>
+      <c r="F46" s="4">
         <v>1126</v>
       </c>
-      <c r="G45" s="4">
+      <c r="G46" s="4">
         <v>394</v>
       </c>
-      <c r="H45" s="4">
+      <c r="H46" s="4">
         <v>6136</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A46" s="2"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-    </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A47" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B47" s="4">
-        <v>2135</v>
-      </c>
-      <c r="C47" s="4">
-        <v>3364</v>
-      </c>
-      <c r="D47" s="4">
-        <v>1740</v>
-      </c>
+      <c r="A47" s="2"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
       <c r="E47" s="2"/>
-      <c r="F47" s="4">
-        <v>1066</v>
-      </c>
-      <c r="G47" s="4">
-        <v>327</v>
-      </c>
-      <c r="H47" s="4">
-        <v>5980</v>
-      </c>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B48" s="4">
-        <v>2666</v>
+        <v>2135</v>
       </c>
       <c r="C48" s="4">
-        <v>3286</v>
+        <v>3364</v>
       </c>
       <c r="D48" s="4">
-        <v>2008</v>
+        <v>1740</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="4">
-        <v>784</v>
+        <v>1066</v>
       </c>
       <c r="G48" s="4">
-        <v>402</v>
+        <v>327</v>
       </c>
       <c r="H48" s="4">
-        <v>6535</v>
+        <v>5980</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B49" s="4">
-        <v>2461</v>
-      </c>
-      <c r="C49" s="3">
-        <v>3668</v>
+        <v>2666</v>
+      </c>
+      <c r="C49" s="4">
+        <v>3286</v>
       </c>
       <c r="D49" s="4">
-        <v>2303</v>
+        <v>2008</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="4">
-        <v>1239</v>
+        <v>784</v>
       </c>
       <c r="G49" s="4">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="H49" s="4">
-        <v>6732</v>
+        <v>6535</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B50" s="4">
-        <v>2576</v>
-      </c>
-      <c r="C50" s="4">
-        <v>4137</v>
+        <v>2461</v>
+      </c>
+      <c r="C50" s="3">
+        <v>3668</v>
       </c>
       <c r="D50" s="4">
-        <v>2049</v>
+        <v>2303</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="4">
+        <v>1239</v>
+      </c>
+      <c r="G50" s="4">
+        <v>396</v>
+      </c>
+      <c r="H50" s="4">
+        <v>6732</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A51" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B51" s="4">
+        <v>2576</v>
+      </c>
+      <c r="C51" s="4">
+        <v>4137</v>
+      </c>
+      <c r="D51" s="4">
+        <v>2049</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" s="4">
         <v>1473</v>
       </c>
-      <c r="G50" s="4">
+      <c r="G51" s="4">
         <v>335</v>
       </c>
-      <c r="H50" s="4">
+      <c r="H51" s="4">
         <v>6306</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A51" s="2"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-    </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A52" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B52" s="4">
-        <v>2273</v>
-      </c>
-      <c r="C52" s="4">
-        <v>3683</v>
-      </c>
-      <c r="D52" s="4">
-        <v>1674</v>
-      </c>
+      <c r="A52" s="2"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
       <c r="E52" s="2"/>
-      <c r="F52" s="4">
-        <v>1138</v>
-      </c>
-      <c r="G52" s="4">
-        <v>293</v>
-      </c>
-      <c r="H52" s="4">
-        <v>6128</v>
-      </c>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B53" s="4">
-        <v>2563</v>
+        <v>2273</v>
       </c>
       <c r="C53" s="4">
-        <v>3081</v>
+        <v>3683</v>
       </c>
       <c r="D53" s="4">
-        <v>2051</v>
+        <v>1674</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="4">
-        <v>776</v>
+        <v>1138</v>
       </c>
       <c r="G53" s="4">
-        <v>475</v>
+        <v>293</v>
       </c>
       <c r="H53" s="4">
-        <v>6557</v>
+        <v>6128</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B54" s="4">
-        <v>2422</v>
+        <v>2563</v>
       </c>
       <c r="C54" s="4">
-        <v>3313</v>
+        <v>3081</v>
       </c>
       <c r="D54" s="4">
-        <v>2370</v>
+        <v>2051</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="4">
-        <v>311</v>
+        <v>776</v>
       </c>
       <c r="G54" s="4">
-        <v>499</v>
+        <v>475</v>
       </c>
       <c r="H54" s="4">
-        <v>6730</v>
+        <v>6557</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B55" s="4">
-        <v>2696</v>
+        <v>2422</v>
       </c>
       <c r="C55" s="4">
-        <v>4253</v>
+        <v>3313</v>
       </c>
       <c r="D55" s="4">
-        <v>2987</v>
+        <v>2370</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="4">
+        <v>311</v>
+      </c>
+      <c r="G55" s="4">
+        <v>499</v>
+      </c>
+      <c r="H55" s="4">
+        <v>6730</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A56" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B56" s="4">
+        <v>2696</v>
+      </c>
+      <c r="C56" s="4">
+        <v>4253</v>
+      </c>
+      <c r="D56" s="4">
+        <v>2987</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" s="4">
         <v>1707</v>
       </c>
-      <c r="G55" s="4">
+      <c r="G56" s="4">
         <v>442</v>
       </c>
-      <c r="H55" s="4">
+      <c r="H56" s="4">
         <v>6878</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A56" s="2"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
-    </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A57" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="A57" s="2"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
@@ -1935,20 +1952,20 @@
       <c r="H57" s="4"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A58" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
+      <c r="A58" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -1960,7 +1977,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -1970,6 +1987,18 @@
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
     </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A61" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/pathologiesRespiFrance.xlsx
+++ b/pathologiesRespiFrance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christophe Godlewski\MEGAsync\GitHub\covid19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8968A6AC-2E42-4291-9FEB-BBCE8FA9A93A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90DB34B3-A412-4171-A4F3-6C17E3338FE1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28690" yWindow="-110" windowWidth="29020" windowHeight="15820" xr2:uid="{C7A5E7A9-40F6-48C7-AF9F-3089D8153C5F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C7A5E7A9-40F6-48C7-AF9F-3089D8153C5F}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>2020-S43</t>
   </si>
@@ -239,6 +239,9 @@
   </si>
   <si>
     <t>2021-S09</t>
+  </si>
+  <si>
+    <t>2021-S10</t>
   </si>
 </sst>
 </file>
@@ -624,11 +627,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74130894-499C-4806-A027-6CF74BEEC805}">
-  <dimension ref="A1:H61"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -673,1288 +676,1302 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B2" s="2">
-        <v>2786</v>
+        <v>2805</v>
       </c>
       <c r="C2" s="2">
-        <v>3906</v>
+        <v>3907</v>
       </c>
       <c r="D2" s="2">
-        <v>1731</v>
+        <v>1916</v>
       </c>
       <c r="E2" s="2">
-        <v>5788</v>
+        <v>5744</v>
       </c>
       <c r="F2" s="2">
-        <v>579</v>
+        <v>838</v>
       </c>
       <c r="G2" s="2">
-        <v>481</v>
+        <v>452</v>
       </c>
       <c r="H2" s="2">
-        <v>6744</v>
+        <v>6737</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B3" s="2">
-        <v>2470</v>
+        <v>2786</v>
       </c>
       <c r="C3" s="2">
-        <v>3410</v>
+        <v>3906</v>
       </c>
       <c r="D3" s="2">
-        <v>1941</v>
+        <v>1731</v>
       </c>
       <c r="E3" s="2">
-        <v>5610</v>
+        <v>5788</v>
       </c>
       <c r="F3" s="2">
-        <v>880</v>
+        <v>579</v>
       </c>
       <c r="G3" s="2">
-        <v>396</v>
+        <v>481</v>
       </c>
       <c r="H3" s="2">
-        <v>6393</v>
+        <v>6744</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4" s="2">
-        <v>2639</v>
+        <v>2470</v>
       </c>
       <c r="C4" s="2">
-        <v>3578</v>
+        <v>3410</v>
       </c>
       <c r="D4" s="2">
-        <v>1707</v>
+        <v>1941</v>
       </c>
       <c r="E4" s="2">
-        <v>5807</v>
+        <v>5610</v>
       </c>
       <c r="F4" s="2">
-        <v>810</v>
+        <v>880</v>
       </c>
       <c r="G4" s="2">
-        <v>449</v>
+        <v>396</v>
       </c>
       <c r="H4" s="2">
-        <v>6434</v>
+        <v>6393</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B5" s="2">
-        <v>2277</v>
+        <v>2639</v>
       </c>
       <c r="C5" s="2">
-        <v>3348</v>
+        <v>3578</v>
       </c>
       <c r="D5" s="2">
-        <v>1761</v>
+        <v>1707</v>
       </c>
       <c r="E5" s="2">
-        <v>5822</v>
+        <v>5807</v>
       </c>
       <c r="F5" s="2">
-        <v>860</v>
+        <v>810</v>
       </c>
       <c r="G5" s="2">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H5" s="2">
-        <v>6613</v>
+        <v>6434</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B6" s="2">
-        <v>2570</v>
+        <v>2277</v>
       </c>
       <c r="C6" s="2">
-        <v>3668</v>
+        <v>3348</v>
       </c>
       <c r="D6" s="2">
-        <v>2101</v>
+        <v>1761</v>
       </c>
       <c r="E6" s="2">
-        <v>5799</v>
+        <v>5822</v>
       </c>
       <c r="F6" s="2">
-        <v>681</v>
+        <v>860</v>
       </c>
       <c r="G6" s="2">
-        <v>474</v>
+        <v>451</v>
       </c>
       <c r="H6" s="2">
-        <v>6535</v>
+        <v>6613</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B7" s="2">
-        <v>2394</v>
+        <v>2570</v>
       </c>
       <c r="C7" s="2">
-        <v>3437</v>
+        <v>3668</v>
       </c>
       <c r="D7" s="2">
-        <v>1954</v>
+        <v>2101</v>
       </c>
       <c r="E7" s="2">
-        <v>5778</v>
+        <v>5799</v>
       </c>
       <c r="F7" s="2">
-        <v>1058</v>
+        <v>681</v>
       </c>
       <c r="G7" s="2">
-        <v>444</v>
+        <v>474</v>
       </c>
       <c r="H7" s="2">
-        <v>6628</v>
+        <v>6535</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B8" s="2">
-        <v>2609</v>
+        <v>2394</v>
       </c>
       <c r="C8" s="2">
-        <v>3265</v>
+        <v>3437</v>
       </c>
       <c r="D8" s="2">
-        <v>2106</v>
+        <v>1954</v>
       </c>
       <c r="E8" s="2">
-        <v>5743</v>
+        <v>5778</v>
       </c>
       <c r="F8" s="2">
-        <v>1172</v>
+        <v>1058</v>
       </c>
       <c r="G8" s="2">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="H8" s="2">
-        <v>6776</v>
+        <v>6628</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B9" s="2">
-        <v>2649</v>
+        <v>2609</v>
       </c>
       <c r="C9" s="2">
-        <v>3611</v>
+        <v>3265</v>
       </c>
       <c r="D9" s="2">
-        <v>2484</v>
+        <v>2106</v>
       </c>
       <c r="E9" s="2">
-        <v>5857</v>
+        <v>5743</v>
       </c>
       <c r="F9" s="2">
-        <v>1354</v>
+        <v>1172</v>
       </c>
       <c r="G9" s="2">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="H9" s="2">
-        <v>7031</v>
+        <v>6776</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B10" s="2">
-        <v>2249</v>
+        <v>2649</v>
       </c>
       <c r="C10" s="2">
-        <v>3660</v>
+        <v>3611</v>
       </c>
       <c r="D10" s="2">
-        <v>2506</v>
+        <v>2484</v>
       </c>
       <c r="E10" s="2">
-        <v>5796</v>
+        <v>5857</v>
       </c>
       <c r="F10" s="2">
-        <v>1055</v>
+        <v>1354</v>
       </c>
       <c r="G10" s="2">
-        <v>530</v>
+        <v>470</v>
       </c>
       <c r="H10" s="2">
-        <v>7053</v>
+        <v>7031</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B11" s="2">
-        <v>2224</v>
+        <v>2249</v>
       </c>
       <c r="C11" s="2">
-        <v>3236</v>
+        <v>3660</v>
       </c>
       <c r="D11" s="2">
-        <v>2085</v>
+        <v>2506</v>
       </c>
       <c r="E11" s="2">
-        <v>5543</v>
+        <v>5796</v>
       </c>
       <c r="F11" s="2">
-        <v>1234</v>
+        <v>1055</v>
       </c>
       <c r="G11" s="2">
-        <v>445</v>
+        <v>530</v>
       </c>
       <c r="H11" s="2">
-        <v>6928</v>
+        <v>7053</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="B12" s="2">
-        <v>2316</v>
+        <v>2224</v>
       </c>
       <c r="C12" s="2">
-        <v>3213</v>
+        <v>3236</v>
       </c>
       <c r="D12" s="2">
-        <v>2170</v>
+        <v>2085</v>
       </c>
       <c r="E12" s="2">
-        <v>5312</v>
+        <v>5543</v>
       </c>
       <c r="F12" s="2">
-        <v>800</v>
+        <v>1234</v>
       </c>
       <c r="G12" s="2">
-        <v>421</v>
+        <v>445</v>
       </c>
       <c r="H12" s="2">
-        <v>6957</v>
+        <v>6928</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B13" s="2">
-        <v>2615</v>
+        <v>2316</v>
       </c>
       <c r="C13" s="2">
-        <v>3852</v>
+        <v>3213</v>
       </c>
       <c r="D13" s="2">
-        <v>2035</v>
+        <v>2170</v>
       </c>
       <c r="E13" s="2">
-        <v>5315</v>
+        <v>5312</v>
       </c>
       <c r="F13" s="2">
-        <v>963</v>
+        <v>800</v>
       </c>
       <c r="G13" s="2">
-        <v>470</v>
+        <v>421</v>
       </c>
       <c r="H13" s="2">
-        <v>6774</v>
+        <v>6957</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B14" s="2">
-        <v>2864</v>
+        <v>2615</v>
       </c>
       <c r="C14" s="2">
-        <v>3531</v>
+        <v>3852</v>
       </c>
       <c r="D14" s="2">
-        <v>2661</v>
+        <v>2035</v>
       </c>
       <c r="E14" s="2">
-        <v>5505</v>
+        <v>5315</v>
       </c>
       <c r="F14" s="2">
-        <v>1176</v>
+        <v>963</v>
       </c>
       <c r="G14" s="2">
-        <v>494</v>
+        <v>470</v>
       </c>
       <c r="H14" s="2">
-        <v>6953</v>
+        <v>6774</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15" s="2">
-        <v>2731</v>
+        <v>2864</v>
       </c>
       <c r="C15" s="2">
-        <v>3634</v>
+        <v>3531</v>
       </c>
       <c r="D15" s="2">
-        <v>2757</v>
+        <v>2661</v>
       </c>
       <c r="E15" s="2">
-        <v>5530</v>
+        <v>5505</v>
       </c>
       <c r="F15" s="2">
-        <v>1081</v>
+        <v>1176</v>
       </c>
       <c r="G15" s="2">
-        <v>569</v>
+        <v>494</v>
       </c>
       <c r="H15" s="2">
-        <v>7146</v>
+        <v>6953</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2">
-        <v>2607</v>
+        <v>2731</v>
       </c>
       <c r="C16" s="2">
-        <v>3547</v>
+        <v>3634</v>
       </c>
       <c r="D16" s="2">
-        <v>2478</v>
+        <v>2757</v>
       </c>
       <c r="E16" s="2">
-        <v>5645</v>
+        <v>5530</v>
       </c>
       <c r="F16" s="2">
-        <v>1467</v>
+        <v>1081</v>
       </c>
       <c r="G16" s="2">
-        <v>527</v>
+        <v>569</v>
       </c>
       <c r="H16" s="2">
-        <v>7281</v>
+        <v>7146</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2">
-        <v>2736</v>
+        <v>2607</v>
       </c>
       <c r="C17" s="2">
-        <v>3700</v>
+        <v>3547</v>
       </c>
       <c r="D17" s="2">
-        <v>2746</v>
+        <v>2478</v>
       </c>
       <c r="E17" s="2">
-        <v>5669</v>
+        <v>5645</v>
       </c>
       <c r="F17" s="2">
-        <v>1076</v>
+        <v>1467</v>
       </c>
       <c r="G17" s="2">
-        <v>554</v>
+        <v>527</v>
       </c>
       <c r="H17" s="2">
-        <v>7393</v>
+        <v>7281</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B18" s="2">
-        <v>2786</v>
+        <v>2736</v>
       </c>
       <c r="C18" s="2">
-        <v>3593</v>
+        <v>3700</v>
       </c>
       <c r="D18" s="2">
-        <v>2260</v>
+        <v>2746</v>
       </c>
       <c r="E18" s="2">
-        <v>5635</v>
+        <v>5669</v>
       </c>
       <c r="F18" s="2">
-        <v>1726</v>
+        <v>1076</v>
       </c>
       <c r="G18" s="2">
-        <v>500</v>
+        <v>554</v>
       </c>
       <c r="H18" s="2">
-        <v>7351</v>
+        <v>7393</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B19" s="2">
-        <v>2685</v>
+        <v>2786</v>
       </c>
       <c r="C19" s="2">
-        <v>3708</v>
+        <v>3593</v>
       </c>
       <c r="D19" s="2">
-        <v>2585</v>
+        <v>2260</v>
       </c>
       <c r="E19" s="2">
-        <v>5383</v>
+        <v>5635</v>
       </c>
       <c r="F19" s="2">
-        <v>873</v>
+        <v>1726</v>
       </c>
       <c r="G19" s="2">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="H19" s="2">
-        <v>7253</v>
+        <v>7351</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="2">
+        <v>2685</v>
+      </c>
+      <c r="C20" s="2">
+        <v>3708</v>
+      </c>
+      <c r="D20" s="2">
+        <v>2585</v>
+      </c>
+      <c r="E20" s="2">
+        <v>5383</v>
+      </c>
+      <c r="F20" s="2">
+        <v>873</v>
+      </c>
+      <c r="G20" s="2">
+        <v>506</v>
+      </c>
+      <c r="H20" s="2">
+        <v>7253</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B21" s="2">
         <v>2608</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C21" s="2">
         <v>3688</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D21" s="2">
         <v>2264</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E21" s="2">
         <v>4891</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F21" s="2">
         <v>1056</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G21" s="2">
         <v>534</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H21" s="2">
         <v>6995</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="4">
-        <v>2967</v>
-      </c>
-      <c r="C21" s="4">
-        <v>3491</v>
-      </c>
-      <c r="D21" s="4">
-        <v>2065</v>
-      </c>
-      <c r="E21" s="4">
-        <v>4589</v>
-      </c>
-      <c r="F21" s="4">
-        <v>622</v>
-      </c>
-      <c r="G21" s="4">
-        <v>422</v>
-      </c>
-      <c r="H21" s="4">
-        <v>6980</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B22" s="4">
-        <v>2816</v>
+        <v>2967</v>
       </c>
       <c r="C22" s="4">
-        <v>3985</v>
+        <v>3491</v>
       </c>
       <c r="D22" s="4">
-        <v>2510</v>
+        <v>2065</v>
       </c>
       <c r="E22" s="4">
-        <v>4469</v>
+        <v>4589</v>
       </c>
       <c r="F22" s="4">
-        <v>607</v>
+        <v>622</v>
       </c>
       <c r="G22" s="4">
-        <v>492</v>
+        <v>422</v>
       </c>
       <c r="H22" s="4">
-        <v>7080</v>
+        <v>6980</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="3">
-        <v>2926</v>
-      </c>
-      <c r="C23" s="3">
-        <v>3707</v>
-      </c>
-      <c r="D23" s="3">
-        <v>2282</v>
-      </c>
-      <c r="E23" s="3">
-        <v>4120</v>
-      </c>
-      <c r="F23" s="3">
-        <v>514</v>
-      </c>
-      <c r="G23" s="3">
-        <v>436</v>
-      </c>
-      <c r="H23" s="3">
-        <v>6991</v>
+        <v>7</v>
+      </c>
+      <c r="B23" s="4">
+        <v>2816</v>
+      </c>
+      <c r="C23" s="4">
+        <v>3985</v>
+      </c>
+      <c r="D23" s="4">
+        <v>2510</v>
+      </c>
+      <c r="E23" s="4">
+        <v>4469</v>
+      </c>
+      <c r="F23" s="4">
+        <v>607</v>
+      </c>
+      <c r="G23" s="4">
+        <v>492</v>
+      </c>
+      <c r="H23" s="4">
+        <v>7080</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="3">
+        <v>2926</v>
+      </c>
+      <c r="C24" s="3">
+        <v>3707</v>
+      </c>
+      <c r="D24" s="3">
+        <v>2282</v>
+      </c>
+      <c r="E24" s="3">
+        <v>4120</v>
+      </c>
+      <c r="F24" s="3">
+        <v>514</v>
+      </c>
+      <c r="G24" s="3">
+        <v>436</v>
+      </c>
+      <c r="H24" s="3">
+        <v>6991</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B25" s="3">
         <v>2832</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C25" s="3">
         <v>3754</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D25" s="3">
         <v>2239</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E25" s="3">
         <v>4312</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F25" s="3">
         <v>788</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G25" s="3">
         <v>453</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H25" s="3">
         <v>7106</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" s="2"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-    </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="2"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B27" s="3">
         <v>2709</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C27" s="3">
         <v>4123</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D27" s="3">
         <v>2658</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E27" s="3">
         <v>4265</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F27" s="3">
         <v>1965</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G27" s="3">
         <v>841</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H27" s="3">
         <v>6866</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="2"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-    </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="2"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B29" s="3">
         <v>2188</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C29" s="3">
         <v>3738</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D29" s="3">
         <v>1726</v>
       </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3">
+      <c r="E29" s="3"/>
+      <c r="F29" s="3">
         <v>872</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G29" s="3">
         <v>363</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H29" s="3">
         <v>6221</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-    </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B30" s="3">
-        <v>2218</v>
-      </c>
-      <c r="C30" s="3">
-        <v>3447</v>
-      </c>
-      <c r="D30" s="3">
-        <v>1597</v>
-      </c>
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
       <c r="E30" s="3"/>
-      <c r="F30" s="3">
-        <v>791</v>
-      </c>
-      <c r="G30" s="3">
-        <v>193</v>
-      </c>
-      <c r="H30" s="3">
-        <v>5922</v>
-      </c>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B31" s="3">
-        <v>2291</v>
+        <v>2218</v>
       </c>
       <c r="C31" s="3">
-        <v>3595</v>
+        <v>3447</v>
       </c>
       <c r="D31" s="3">
-        <v>2009</v>
+        <v>1597</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3">
-        <v>934</v>
+        <v>791</v>
       </c>
       <c r="G31" s="3">
-        <v>353</v>
+        <v>193</v>
       </c>
       <c r="H31" s="3">
-        <v>5846</v>
+        <v>5922</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B32" s="3">
-        <v>2296</v>
+        <v>2291</v>
       </c>
       <c r="C32" s="3">
-        <v>3708</v>
+        <v>3595</v>
       </c>
       <c r="D32" s="3">
-        <v>1780</v>
+        <v>2009</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3">
-        <v>742</v>
+        <v>934</v>
       </c>
       <c r="G32" s="3">
-        <v>377</v>
+        <v>353</v>
       </c>
       <c r="H32" s="3">
-        <v>5952</v>
+        <v>5846</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B33" s="3">
-        <v>2373</v>
+        <v>2296</v>
       </c>
       <c r="C33" s="3">
-        <v>3515</v>
+        <v>3708</v>
       </c>
       <c r="D33" s="3">
-        <v>1755</v>
+        <v>1780</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3">
-        <v>818</v>
+        <v>742</v>
       </c>
       <c r="G33" s="3">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="H33" s="3">
-        <v>5881</v>
+        <v>5952</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B34" s="3">
-        <v>2456</v>
+        <v>2373</v>
       </c>
       <c r="C34" s="3">
-        <v>3345</v>
+        <v>3515</v>
       </c>
       <c r="D34" s="3">
-        <v>1706</v>
+        <v>1755</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3">
-        <v>719</v>
+        <v>818</v>
       </c>
       <c r="G34" s="3">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="H34" s="3">
-        <v>5982</v>
+        <v>5881</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B35" s="3">
-        <v>2382</v>
+        <v>2456</v>
       </c>
       <c r="C35" s="3">
-        <v>3423</v>
+        <v>3345</v>
       </c>
       <c r="D35" s="3">
-        <v>2053</v>
+        <v>1706</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3">
-        <v>755</v>
+        <v>719</v>
       </c>
       <c r="G35" s="3">
-        <v>390</v>
+        <v>346</v>
       </c>
       <c r="H35" s="3">
-        <v>6019</v>
+        <v>5982</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B36" s="3">
-        <v>2630</v>
+        <v>2382</v>
       </c>
       <c r="C36" s="3">
-        <v>3390</v>
+        <v>3423</v>
       </c>
       <c r="D36" s="3">
-        <v>1911</v>
+        <v>2053</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3">
-        <v>728</v>
+        <v>755</v>
       </c>
       <c r="G36" s="3">
-        <v>411</v>
+        <v>390</v>
       </c>
       <c r="H36" s="3">
-        <v>6293</v>
+        <v>6019</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B37" s="3">
-        <v>2440</v>
+        <v>2630</v>
       </c>
       <c r="C37" s="3">
-        <v>3379</v>
+        <v>3390</v>
       </c>
       <c r="D37" s="3">
-        <v>2036</v>
+        <v>1911</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3">
-        <v>793</v>
+        <v>728</v>
       </c>
       <c r="G37" s="3">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="H37" s="3">
-        <v>6359</v>
+        <v>6293</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B38" s="3">
-        <v>2329</v>
+        <v>2440</v>
       </c>
       <c r="C38" s="3">
-        <v>3333</v>
+        <v>3379</v>
       </c>
       <c r="D38" s="3">
-        <v>2011</v>
+        <v>2036</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3">
-        <v>672</v>
+        <v>793</v>
       </c>
       <c r="G38" s="3">
-        <v>486</v>
+        <v>416</v>
       </c>
       <c r="H38" s="3">
-        <v>6237</v>
+        <v>6359</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A39" s="2" t="s">
-        <v>9</v>
+      <c r="A39" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="B39" s="3">
-        <v>2288</v>
+        <v>2329</v>
       </c>
       <c r="C39" s="3">
-        <v>3275</v>
+        <v>3333</v>
       </c>
       <c r="D39" s="3">
-        <v>1979</v>
+        <v>2011</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3">
-        <v>870</v>
+        <v>672</v>
       </c>
       <c r="G39" s="3">
-        <v>445</v>
+        <v>486</v>
       </c>
       <c r="H39" s="3">
-        <v>6440</v>
+        <v>6237</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B40" s="4">
-        <v>2256</v>
-      </c>
-      <c r="C40" s="4">
-        <v>3440</v>
-      </c>
-      <c r="D40" s="4">
-        <v>2083</v>
-      </c>
-      <c r="E40" s="2"/>
-      <c r="F40" s="4">
-        <v>707</v>
-      </c>
-      <c r="G40" s="4">
-        <v>470</v>
-      </c>
-      <c r="H40" s="4">
-        <v>6526</v>
+        <v>9</v>
+      </c>
+      <c r="B40" s="3">
+        <v>2288</v>
+      </c>
+      <c r="C40" s="3">
+        <v>3275</v>
+      </c>
+      <c r="D40" s="3">
+        <v>1979</v>
+      </c>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3">
+        <v>870</v>
+      </c>
+      <c r="G40" s="3">
+        <v>445</v>
+      </c>
+      <c r="H40" s="3">
+        <v>6440</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="B41" s="4">
-        <v>2279</v>
+        <v>2256</v>
       </c>
       <c r="C41" s="4">
-        <v>3257</v>
+        <v>3440</v>
       </c>
       <c r="D41" s="4">
-        <v>1713</v>
+        <v>2083</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="4">
-        <v>691</v>
+        <v>707</v>
       </c>
       <c r="G41" s="4">
-        <v>488</v>
+        <v>470</v>
       </c>
       <c r="H41" s="4">
-        <v>6618</v>
+        <v>6526</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B42" s="4">
-        <v>2265</v>
+        <v>2279</v>
       </c>
       <c r="C42" s="4">
-        <v>3145</v>
+        <v>3257</v>
       </c>
       <c r="D42" s="4">
-        <v>1874</v>
+        <v>1713</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="4">
+        <v>691</v>
+      </c>
+      <c r="G42" s="4">
+        <v>488</v>
+      </c>
+      <c r="H42" s="4">
+        <v>6618</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A43" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B43" s="4">
+        <v>2265</v>
+      </c>
+      <c r="C43" s="4">
+        <v>3145</v>
+      </c>
+      <c r="D43" s="4">
+        <v>1874</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" s="4">
         <v>781</v>
       </c>
-      <c r="G42" s="4">
+      <c r="G43" s="4">
         <v>497</v>
       </c>
-      <c r="H42" s="4">
+      <c r="H43" s="4">
         <v>6520</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A43" s="2"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-    </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="2"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A45" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B45" s="4">
         <v>2505</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C45" s="4">
         <v>3736</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D45" s="4">
         <v>2075</v>
       </c>
-      <c r="E44" s="2"/>
-      <c r="F44" s="4">
+      <c r="E45" s="2"/>
+      <c r="F45" s="4">
         <v>666</v>
       </c>
-      <c r="G44" s="4">
+      <c r="G45" s="4">
         <v>432</v>
       </c>
-      <c r="H44" s="4">
+      <c r="H45" s="4">
         <v>6427</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A45" s="2"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-    </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="2"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A47" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B47" s="4">
         <v>2484</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C47" s="4">
         <v>3886</v>
       </c>
-      <c r="D46" s="4">
+      <c r="D47" s="4">
         <v>2051</v>
       </c>
-      <c r="E46" s="2"/>
-      <c r="F46" s="4">
+      <c r="E47" s="2"/>
+      <c r="F47" s="4">
         <v>1126</v>
       </c>
-      <c r="G46" s="4">
+      <c r="G47" s="4">
         <v>394</v>
       </c>
-      <c r="H46" s="4">
+      <c r="H47" s="4">
         <v>6136</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A47" s="2"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-    </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A48" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B48" s="4">
-        <v>2135</v>
-      </c>
-      <c r="C48" s="4">
-        <v>3364</v>
-      </c>
-      <c r="D48" s="4">
-        <v>1740</v>
-      </c>
+      <c r="A48" s="2"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
       <c r="E48" s="2"/>
-      <c r="F48" s="4">
-        <v>1066</v>
-      </c>
-      <c r="G48" s="4">
-        <v>327</v>
-      </c>
-      <c r="H48" s="4">
-        <v>5980</v>
-      </c>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B49" s="4">
-        <v>2666</v>
+        <v>2135</v>
       </c>
       <c r="C49" s="4">
-        <v>3286</v>
+        <v>3364</v>
       </c>
       <c r="D49" s="4">
-        <v>2008</v>
+        <v>1740</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="4">
-        <v>784</v>
+        <v>1066</v>
       </c>
       <c r="G49" s="4">
-        <v>402</v>
+        <v>327</v>
       </c>
       <c r="H49" s="4">
-        <v>6535</v>
+        <v>5980</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B50" s="4">
-        <v>2461</v>
-      </c>
-      <c r="C50" s="3">
-        <v>3668</v>
+        <v>2666</v>
+      </c>
+      <c r="C50" s="4">
+        <v>3286</v>
       </c>
       <c r="D50" s="4">
-        <v>2303</v>
+        <v>2008</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="4">
-        <v>1239</v>
+        <v>784</v>
       </c>
       <c r="G50" s="4">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="H50" s="4">
-        <v>6732</v>
+        <v>6535</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B51" s="4">
-        <v>2576</v>
-      </c>
-      <c r="C51" s="4">
-        <v>4137</v>
+        <v>2461</v>
+      </c>
+      <c r="C51" s="3">
+        <v>3668</v>
       </c>
       <c r="D51" s="4">
-        <v>2049</v>
+        <v>2303</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="4">
+        <v>1239</v>
+      </c>
+      <c r="G51" s="4">
+        <v>396</v>
+      </c>
+      <c r="H51" s="4">
+        <v>6732</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A52" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B52" s="4">
+        <v>2576</v>
+      </c>
+      <c r="C52" s="4">
+        <v>4137</v>
+      </c>
+      <c r="D52" s="4">
+        <v>2049</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" s="4">
         <v>1473</v>
       </c>
-      <c r="G51" s="4">
+      <c r="G52" s="4">
         <v>335</v>
       </c>
-      <c r="H51" s="4">
+      <c r="H52" s="4">
         <v>6306</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A52" s="2"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-    </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A53" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B53" s="4">
-        <v>2273</v>
-      </c>
-      <c r="C53" s="4">
-        <v>3683</v>
-      </c>
-      <c r="D53" s="4">
-        <v>1674</v>
-      </c>
+      <c r="A53" s="2"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
       <c r="E53" s="2"/>
-      <c r="F53" s="4">
-        <v>1138</v>
-      </c>
-      <c r="G53" s="4">
-        <v>293</v>
-      </c>
-      <c r="H53" s="4">
-        <v>6128</v>
-      </c>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B54" s="4">
-        <v>2563</v>
+        <v>2273</v>
       </c>
       <c r="C54" s="4">
-        <v>3081</v>
+        <v>3683</v>
       </c>
       <c r="D54" s="4">
-        <v>2051</v>
+        <v>1674</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="4">
-        <v>776</v>
+        <v>1138</v>
       </c>
       <c r="G54" s="4">
-        <v>475</v>
+        <v>293</v>
       </c>
       <c r="H54" s="4">
-        <v>6557</v>
+        <v>6128</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B55" s="4">
-        <v>2422</v>
+        <v>2563</v>
       </c>
       <c r="C55" s="4">
-        <v>3313</v>
+        <v>3081</v>
       </c>
       <c r="D55" s="4">
-        <v>2370</v>
+        <v>2051</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="4">
-        <v>311</v>
+        <v>776</v>
       </c>
       <c r="G55" s="4">
-        <v>499</v>
+        <v>475</v>
       </c>
       <c r="H55" s="4">
-        <v>6730</v>
+        <v>6557</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B56" s="4">
-        <v>2696</v>
+        <v>2422</v>
       </c>
       <c r="C56" s="4">
-        <v>4253</v>
+        <v>3313</v>
       </c>
       <c r="D56" s="4">
-        <v>2987</v>
+        <v>2370</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="4">
+        <v>311</v>
+      </c>
+      <c r="G56" s="4">
+        <v>499</v>
+      </c>
+      <c r="H56" s="4">
+        <v>6730</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A57" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B57" s="4">
+        <v>2696</v>
+      </c>
+      <c r="C57" s="4">
+        <v>4253</v>
+      </c>
+      <c r="D57" s="4">
+        <v>2987</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" s="4">
         <v>1707</v>
       </c>
-      <c r="G56" s="4">
+      <c r="G57" s="4">
         <v>442</v>
       </c>
-      <c r="H56" s="4">
+      <c r="H57" s="4">
         <v>6878</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A57" s="2"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-    </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A58" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="A58" s="2"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
@@ -1964,20 +1981,20 @@
       <c r="H58" s="4"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A59" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
+      <c r="A59" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -1989,7 +2006,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -1999,6 +2016,18 @@
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
     </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A62" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
